--- a/Current_Financial_Model_JP_PFAL.xlsx
+++ b/Current_Financial_Model_JP_PFAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francis/PycharmProjects/VerticalFarming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A72E18-D0E1-044F-802B-4EB1023D3F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8750EB00-5DA7-5C44-A1FC-CDE7FDDF9B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3720" windowWidth="33420" windowHeight="16180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3720" windowWidth="33420" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="14" r:id="rId1"/>
@@ -2059,7 +2059,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="980">
   <si>
     <t>Packaging types &amp; ROUGH Cost per package</t>
   </si>
@@ -2533,9 +2533,6 @@
   </si>
   <si>
     <t>Lighting Control</t>
-  </si>
-  <si>
-    <t>EDIT BLUE CELLS</t>
   </si>
   <si>
     <t>SOURCE DATA FOR PINK CELLS</t>
@@ -5483,7 +5480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5500,12 +5497,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
         <bgColor rgb="FFD5A6BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -5876,7 +5867,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5910,11 +5901,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3"/>
@@ -5941,26 +5932,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5969,10 +5960,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5981,10 +5972,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5997,7 +5988,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6015,26 +6006,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6047,31 +6038,31 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="32" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="20" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="32" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6088,27 +6079,27 @@
     </xf>
     <xf numFmtId="172" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="39" fontId="35" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="35" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6183,7 +6174,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6194,12 +6185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6209,26 +6200,26 @@
     </xf>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="38" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="38" fillId="16" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="41" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="41" fillId="16" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
@@ -6241,47 +6232,47 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="17" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="18" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="20" fillId="18" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="20" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="30" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="30" fillId="24" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="41" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="38" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="38" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="41" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6290,7 +6281,7 @@
     </xf>
     <xf numFmtId="10" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="38" fillId="23" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="38" fillId="22" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6303,56 +6294,56 @@
     <xf numFmtId="172" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="38" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="38" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="38" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="21" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="38" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="21" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="41" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="41" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="18" fillId="18" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="18" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="18" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="42" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="42" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="68" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="68" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="68" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6368,98 +6359,87 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="18" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="32" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="32" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="32" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="18" fillId="33" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="20" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="20" fillId="31" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="32" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="33" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="32" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="32" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="32" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="26" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="32" fillId="25" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="32" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="32" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="32" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="26" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="32" fillId="25" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="26" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="25" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="18" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="30" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="20" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="18" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="30" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="20" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="20" fillId="25" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="20" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6496,10 +6476,20 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6509,16 +6499,16 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -16730,12 +16720,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B2" s="213">
         <f>start_date</f>
@@ -16744,7 +16734,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="191" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B3" s="191">
         <f>facility_size_pilot</f>
@@ -16753,7 +16743,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="191" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B4" s="191">
         <f>percent_production_area_pilot</f>
@@ -16762,7 +16752,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="192" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B5" s="192">
         <f>growing_levels_pilot</f>
@@ -16771,7 +16761,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="193" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B6" s="193" t="str">
         <f>weight_unit</f>
@@ -16780,7 +16770,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="191" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="191">
         <f>growing_area_mulitplier</f>
@@ -16789,7 +16779,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="191" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B8" s="191">
         <f>no_lights_pilot</f>
@@ -16798,7 +16788,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="194" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B9" s="194">
         <f>packaging_cost_pilot</f>
@@ -16807,7 +16797,7 @@
     </row>
     <row r="10" spans="1:2" s="215" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="194" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B10" s="194">
         <f>packaging_cost_full</f>
@@ -16816,7 +16806,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="195" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B11" s="195">
         <f>other_costs_pilot</f>
@@ -16825,7 +16815,7 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="192" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B12" s="192" t="str">
         <f>farm_type</f>
@@ -16834,7 +16824,7 @@
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="192" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B13" s="192" t="str">
         <f>business_model</f>
@@ -16843,7 +16833,7 @@
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="192" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B14" s="192" t="str">
         <f>grower_exp</f>
@@ -16852,7 +16842,7 @@
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="192" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B15" s="192" t="str">
         <f>automation_level</f>
@@ -16861,7 +16851,7 @@
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="211" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B16" s="192" t="str">
         <f>climate_control</f>
@@ -16870,7 +16860,7 @@
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="192" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B17" s="192" t="str">
         <f>lighting_control</f>
@@ -16879,7 +16869,7 @@
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="192" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B18" s="192" t="str">
         <f>nutrient_control</f>
@@ -16888,7 +16878,7 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="192" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B19" s="192" t="str">
         <f>system_type</f>
@@ -16897,7 +16887,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="196" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B20" s="196">
         <f>system_quantity</f>
@@ -16906,7 +16896,7 @@
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="192" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B21" s="192" t="str">
         <f>light_system</f>
@@ -16915,7 +16905,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="197" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B22" s="197" t="str">
         <f>growing_media</f>
@@ -16924,7 +16914,7 @@
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="192" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B23" s="192">
         <f>ceiling_height</f>
@@ -16933,7 +16923,7 @@
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="219" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B24" s="192" t="str" cm="1">
         <f t="array" ref="B24">insulation_level</f>
@@ -16942,7 +16932,7 @@
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="192" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B25" s="192" t="str">
         <f>roof_type</f>
@@ -16951,7 +16941,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="195" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B26" s="195" t="str">
         <f>co2_enrichment</f>
@@ -16960,7 +16950,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="198" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B27" s="198" t="str">
         <f>structure_type</f>
@@ -16969,7 +16959,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="199" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B28" s="199">
         <f>water_price</f>
@@ -16978,7 +16968,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="200" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B29" s="200">
         <f>electricity_price</f>
@@ -16987,7 +16977,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="201" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B30" s="201">
         <f>labour_improvement</f>
@@ -16996,7 +16986,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="201" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B31" s="201">
         <f>percentage_renewable_energy</f>
@@ -17005,7 +16995,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="191" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B32" s="191" t="str">
         <f>biosecurity_level</f>
@@ -17014,7 +17004,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="202" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B33" s="202">
         <f>loan_amount</f>
@@ -17023,7 +17013,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="201" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B34" s="201">
         <f>tax_rate</f>
@@ -17032,7 +17022,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="201" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B35" s="201">
         <f>loan_interest</f>
@@ -17041,7 +17031,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="203" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B36" s="203">
         <f>loan_tenure</f>
@@ -17050,7 +17040,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="203" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B37" s="203" t="str">
         <f>loan_type</f>
@@ -17059,7 +17049,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="191" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B38" s="191" t="str">
         <f>crop_typ1</f>
@@ -17068,7 +17058,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="201" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B39" s="201">
         <f>crop1_percent</f>
@@ -17077,7 +17067,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="197" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B40" s="197" t="str">
         <f>crop1_system</f>
@@ -17086,7 +17076,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="197" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B41" s="197">
         <f>crop1_harvest_weight</f>
@@ -17095,7 +17085,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="197" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B42" s="197">
         <f>crop1_product_weight</f>
@@ -17104,7 +17094,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="204" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B43" s="204">
         <f>crop1_customer_percent</f>
@@ -17113,7 +17103,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="205" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B44" s="205">
         <f>crop1_price1</f>
@@ -17122,7 +17112,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="205" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B45" s="205">
         <f>crop1_price2</f>
@@ -17131,7 +17121,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="197" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B46" s="197" t="str">
         <f>crop_typ2</f>
@@ -17140,7 +17130,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="206" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B47" s="206">
         <f>crop2_percent</f>
@@ -17149,7 +17139,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="197" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B48" s="197" t="str">
         <f>crop2_system</f>
@@ -17158,7 +17148,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="197" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B49" s="197">
         <f>crop2_harvest_weight</f>
@@ -17167,7 +17157,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="197" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B50" s="197">
         <f>crop2_product_weight</f>
@@ -17176,7 +17166,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="204" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B51" s="204">
         <f>crop2_customer_percent</f>
@@ -17185,7 +17175,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="205" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B52" s="205">
         <f>crop2_price1</f>
@@ -17194,7 +17184,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="205" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B53" s="205">
         <f>crop2_price2</f>
@@ -17203,7 +17193,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="197" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B54" s="197" t="str">
         <f>crop_typ3</f>
@@ -17212,7 +17202,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="206" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B55" s="206">
         <f>crop3_percent</f>
@@ -17221,7 +17211,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="197" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B56" s="197" t="str">
         <f>crop3_system</f>
@@ -17230,7 +17220,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="197" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B57" s="197">
         <f>crop3_harvest_weight</f>
@@ -17239,7 +17229,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="197" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B58" s="197">
         <f>crop3_product_weight</f>
@@ -17248,7 +17238,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="204" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B59" s="204">
         <f>crop3_customer_percent</f>
@@ -17257,7 +17247,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="205" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B60" s="205">
         <f>crop3_price1</f>
@@ -17266,7 +17256,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="205" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B61" s="205">
         <f>crop3_price2</f>
@@ -17275,7 +17265,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="197" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B62" s="197" t="str">
         <f>crop_typ4</f>
@@ -17284,7 +17274,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="201" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B63" s="201">
         <f>crop4_percent</f>
@@ -17293,7 +17283,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="197" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B64" s="197" t="str">
         <f>crop4_system</f>
@@ -17302,7 +17292,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="197" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B65" s="197">
         <f>crop4_harvest_weight</f>
@@ -17311,7 +17301,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="197" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B66" s="197">
         <f>crop4_product_weight</f>
@@ -17320,7 +17310,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="197" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B67" s="197">
         <f>crop4_customer_percent</f>
@@ -17329,7 +17319,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="205" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B68" s="205">
         <f>crop4_price1</f>
@@ -17338,7 +17328,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="205" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B69" s="205">
         <f>crop4_price2</f>
@@ -17347,7 +17337,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="191" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B70" s="191">
         <f>vadded_products_multiplier</f>
@@ -17356,7 +17346,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="191" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B71" s="191">
         <f>education_multiplier</f>
@@ -17365,7 +17355,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="191" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B72" s="191">
         <f>tourism_multiplier</f>
@@ -17374,7 +17364,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="191" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B73" s="191">
         <f>hospitality_multiplier</f>
@@ -17383,7 +17373,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="207" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B74" s="207">
         <f>vadded_avg_revenue_y1</f>
@@ -17392,7 +17382,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="207" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B75" s="207">
         <f>education_avg_revenue_y1</f>
@@ -17401,7 +17391,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="207" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B76" s="207">
         <f>tourism_avg_revenue_y1</f>
@@ -17410,7 +17400,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="207" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B77" s="207">
         <f>hospitality_avg_revenue_y1</f>
@@ -17419,7 +17409,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="208" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B78" s="208">
         <f>monthly_rent_y1</f>
@@ -17428,7 +17418,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="209" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B79" s="209">
         <f>monthly_distribution_y1</f>
@@ -17437,7 +17427,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="197" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B80" s="197">
         <f>monthly_rent_y2</f>
@@ -17446,7 +17436,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="197" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B81" s="197">
         <f>monthly_distribution_y2</f>
@@ -17455,7 +17445,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="207" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B82" s="207">
         <f>delivery_msalary</f>
@@ -17464,7 +17454,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="207" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B83" s="207">
         <f>farmhand_msalary</f>
@@ -17473,7 +17463,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="207" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B84" s="207">
         <f>parttime_wage</f>
@@ -17482,7 +17472,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="207" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B85" s="207">
         <f>ceo_msalary</f>
@@ -17491,7 +17481,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="207" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B86" s="207">
         <f>hgrower_msalary</f>
@@ -17500,7 +17490,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B87" s="207">
         <f>marketer_msalary</f>
@@ -17509,7 +17499,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="207" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B88" s="207">
         <f>scientist_msalary</f>
@@ -17518,7 +17508,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="207" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B89" s="207">
         <f>salesperson_msalary</f>
@@ -17527,7 +17517,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="207" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B90" s="207">
         <f>manager_msalary</f>
@@ -17536,7 +17526,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="207" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B91" s="207">
         <f>admin_msalary</f>
@@ -17545,7 +17535,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="191" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B92" s="191">
         <f>ceo_count_y1</f>
@@ -17554,7 +17544,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="191" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B93" s="191">
         <f>hgrower_count_y1</f>
@@ -17563,7 +17553,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="191" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B94" s="191">
         <f>marketer_count_y1</f>
@@ -17572,7 +17562,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="191" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B95" s="191">
         <f>scientist_count_y1</f>
@@ -17581,7 +17571,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="191" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B96" s="191">
         <f>salesperson_count_y1</f>
@@ -17590,7 +17580,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="191" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B97" s="191">
         <f>manager_count_y1</f>
@@ -17599,7 +17589,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="191" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B98" s="191">
         <f>delivery_count_y1</f>
@@ -17608,7 +17598,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="191" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B99" s="191">
         <f>farmhand_count_y1</f>
@@ -17617,7 +17607,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="191" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B100" s="191">
         <f>admin_count_y1</f>
@@ -17626,7 +17616,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="191" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B101" s="191">
         <f>parttime_count_y1</f>
@@ -17635,7 +17625,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="191" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B102" s="191">
         <f>ceo_count_y2</f>
@@ -17644,7 +17634,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="191" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B103" s="191">
         <f>hgrower_count_y2</f>
@@ -17653,7 +17643,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="191" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B104" s="191">
         <f>marketer_count_y2</f>
@@ -17662,7 +17652,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="191" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B105" s="191">
         <f>scientist_count_y2</f>
@@ -17671,7 +17661,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="191" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B106" s="191">
         <f>salesperson_count_y2</f>
@@ -17680,7 +17670,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="191" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B107" s="191">
         <f>manager_count_y2</f>
@@ -17689,7 +17679,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="191" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B108" s="191">
         <f>delivery_count_y2</f>
@@ -17698,7 +17688,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="191" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B109" s="191">
         <f>farmhand_count_y2</f>
@@ -17707,7 +17697,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="191" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B110" s="191">
         <f>admin_count_y2</f>
@@ -17716,7 +17706,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="191" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B111" s="191">
         <f>parttime_count_y2</f>
@@ -17725,7 +17715,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="214" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B112">
         <f>Overview!F99</f>
@@ -17734,7 +17724,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="214" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B113" s="103">
         <f>Overview!G99</f>
@@ -17743,7 +17733,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="217" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B114" s="218">
         <f>'CapEx Breakdown'!C37</f>
@@ -17752,7 +17742,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="217" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B115" s="218">
         <f ca="1">'CapEx Breakdown'!E37</f>
@@ -17761,7 +17751,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="214" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B116" s="87">
         <f>'CapEx Breakdown'!D25+'CapEx Breakdown'!C25</f>
@@ -17770,7 +17760,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="214" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B117" s="87">
         <f ca="1">('CapEx Breakdown'!D34+'CapEx Breakdown'!C34)-('CapEx Breakdown'!C25+'CapEx Breakdown'!D25)</f>
@@ -17779,7 +17769,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="214" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B118" s="87">
         <f>'CapEx Breakdown'!D16+'CapEx Breakdown'!D17+'CapEx Breakdown'!D18+'CapEx Breakdown'!C18+'CapEx Breakdown'!C17+'CapEx Breakdown'!C16</f>
@@ -17788,7 +17778,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B119">
         <f>target_productivity_space</f>
@@ -17797,7 +17787,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B120">
         <f>target_productivity_energy</f>
@@ -17806,7 +17796,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B121">
         <f>target_productivity_labour</f>
@@ -17815,7 +17805,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B122">
         <f>target_productivity_water</f>
@@ -17824,7 +17814,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B123">
         <f>target_productivity_nutrients</f>
@@ -17833,7 +17823,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="39" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B124">
         <f>target_productivity_volume</f>
@@ -17842,7 +17832,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B125">
         <f>target_productivity_plants</f>
@@ -17851,7 +17841,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B126">
         <f>target_productivity_CO2</f>
@@ -17860,7 +17850,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B127">
         <f>target_productivity_CO2_omitted</f>
@@ -17869,7 +17859,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B128">
         <f>target_productivity_CO2_net</f>
@@ -17878,7 +17868,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B129" t="str">
         <f>ipm</f>
@@ -17887,7 +17877,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B130" t="str">
         <f>pest_detection</f>
@@ -17896,15 +17886,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B131" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B132" s="326" t="str">
         <f>Overview!B12</f>
@@ -17913,7 +17903,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B133" s="86">
         <f>percent_production_area_full</f>
@@ -17922,7 +17912,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="39" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B134" t="str">
         <f>energy_type</f>
@@ -17931,7 +17921,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="375" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B135" s="357">
         <v>0</v>
@@ -17939,7 +17929,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="375" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B136" s="357">
         <f>grant_revenue_y1</f>
@@ -17948,7 +17938,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="375" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B137" s="357">
         <f>grant_revenue_y2</f>
@@ -17957,7 +17947,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="375" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B138" s="357">
         <v>0</v>
@@ -17965,7 +17955,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="375" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B139" s="357">
         <v>0</v>
@@ -17973,7 +17963,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="375" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B140" s="357">
         <v>0</v>
@@ -17981,7 +17971,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="375" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B141" s="357">
         <v>0</v>
@@ -17989,7 +17979,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="375" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B142" s="357">
         <v>0</v>
@@ -17997,7 +17987,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="375" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B143" s="357">
         <v>0</v>
@@ -18005,7 +17995,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="375" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B144" s="357">
         <v>0</v>
@@ -18013,7 +18003,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="375" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B145" s="357">
         <v>0</v>
@@ -18021,7 +18011,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="375" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B146" s="357">
         <v>0</v>
@@ -18029,7 +18019,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="375" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B147" s="376">
         <v>1630</v>
@@ -18037,7 +18027,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="375" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B148" s="357">
         <v>0.03</v>
@@ -18084,7 +18074,7 @@
     <row r="1" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63"/>
       <c r="B1" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -18643,7 +18633,7 @@
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="42">
         <f>Overview!F103</f>
@@ -18751,7 +18741,7 @@
     <row r="14" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="68">
@@ -18815,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -18829,7 +18819,7 @@
     <row r="15" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="68">
@@ -18905,7 +18895,7 @@
     <row r="16" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="37">
         <f ca="1">Overview!F108</f>
@@ -19008,7 +18998,7 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="68">
         <f ca="1">C12-C16</f>
@@ -19087,7 +19077,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43">
@@ -19163,7 +19153,7 @@
     <row r="20" spans="1:27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16">
@@ -19481,7 +19471,7 @@
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C28" s="105">
         <f>SUM(Overview!V69:V72)</f>
@@ -47939,7 +47929,7 @@
   </sheetPr>
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -47961,59 +47951,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="417" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
-      <c r="G1" s="418"/>
-      <c r="H1" s="418"/>
+      <c r="A1" s="429" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="418"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="419" t="s">
-        <v>479</v>
-      </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="418"/>
-      <c r="H4" s="418"/>
+      <c r="A4" s="431" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="430"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430"/>
     </row>
     <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="420" t="s">
-        <v>979</v>
-      </c>
-      <c r="B5" s="421"/>
-      <c r="C5" s="421"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="421"/>
-      <c r="H5" s="421"/>
+      <c r="A5" s="432" t="s">
+        <v>978</v>
+      </c>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -48024,20 +48014,20 @@
       <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="422" t="s">
-        <v>886</v>
-      </c>
-      <c r="B7" s="418"/>
-      <c r="C7" s="418"/>
-      <c r="D7" s="418"/>
-      <c r="E7" s="418"/>
-      <c r="F7" s="418"/>
-      <c r="G7" s="418"/>
-      <c r="H7" s="418"/>
+      <c r="A7" s="434" t="s">
+        <v>885</v>
+      </c>
+      <c r="B7" s="430"/>
+      <c r="C7" s="430"/>
+      <c r="D7" s="430"/>
+      <c r="E7" s="430"/>
+      <c r="F7" s="430"/>
+      <c r="G7" s="430"/>
+      <c r="H7" s="430"/>
     </row>
     <row r="8" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="341" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B8" s="341"/>
       <c r="C8" s="341"/>
@@ -48049,12 +48039,12 @@
     </row>
     <row r="9" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -48076,10 +48066,10 @@
     </row>
     <row r="12" spans="1:22" s="210" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12" s="379" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -48090,7 +48080,7 @@
     </row>
     <row r="13" spans="1:22" s="210" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="379">
         <v>44228</v>
@@ -48111,36 +48101,36 @@
       <c r="Q14" s="143"/>
       <c r="R14" s="144"/>
       <c r="S14" s="144"/>
-      <c r="T14" s="416"/>
-      <c r="U14" s="416"/>
+      <c r="T14" s="428"/>
+      <c r="U14" s="428"/>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="145" t="s">
         <v>167</v>
-      </c>
-      <c r="C15" s="145" t="s">
-        <v>168</v>
       </c>
       <c r="D15" s="168"/>
       <c r="E15" s="168"/>
       <c r="F15" s="190" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G15" s="144"/>
       <c r="H15" s="116" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="I15" s="116" t="s">
+      <c r="J15" s="116" t="s">
         <v>296</v>
       </c>
-      <c r="J15" s="116" t="s">
+      <c r="K15" s="116" t="s">
         <v>297</v>
-      </c>
-      <c r="K15" s="116" t="s">
-        <v>298</v>
       </c>
       <c r="L15" s="171" t="s">
         <v>63</v>
@@ -48158,7 +48148,7 @@
     </row>
     <row r="16" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="377">
         <v>1000</v>
@@ -48170,19 +48160,19 @@
       <c r="E16" s="168"/>
       <c r="F16" s="168"/>
       <c r="G16" s="186" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H16" s="385" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I16" s="386" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J16" s="386" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K16" s="386" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L16" s="226"/>
       <c r="M16" s="140"/>
@@ -48198,7 +48188,7 @@
     </row>
     <row r="17" spans="1:22" s="96" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="378">
         <v>0.36399999999999999</v>
@@ -48211,7 +48201,7 @@
       <c r="E17" s="168"/>
       <c r="F17" s="168"/>
       <c r="G17" s="187" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="387">
         <v>1</v>
@@ -48242,7 +48232,7 @@
     </row>
     <row r="18" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="147">
         <f>B16*B17</f>
@@ -48255,25 +48245,25 @@
       <c r="D18" s="168"/>
       <c r="E18" s="168"/>
       <c r="F18" s="123" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G18" s="186" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H18" s="386" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I18" s="386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J18" s="386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K18" s="386" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L18" s="227" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="139"/>
@@ -48298,11 +48288,11 @@
       </c>
       <c r="D19" s="168"/>
       <c r="E19" s="168"/>
-      <c r="F19" s="424" t="s">
-        <v>569</v>
+      <c r="F19" s="417" t="s">
+        <v>568</v>
       </c>
       <c r="G19" s="186" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="117">
         <f>VLOOKUP(H16, Database!$A$8:$Y$67, 4, FALSE)</f>
@@ -48337,7 +48327,7 @@
     </row>
     <row r="20" spans="1:22" s="92" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="380">
         <f>IF(system_type="ZipRack", system_quantity*Database!F70, growing_levels_pilot*growing_area_pilot)</f>
@@ -48349,9 +48339,9 @@
       </c>
       <c r="D20" s="168"/>
       <c r="E20" s="168"/>
-      <c r="F20" s="424"/>
+      <c r="F20" s="417"/>
       <c r="G20" s="180" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H20" s="374">
         <f>(VLOOKUP(H16, Database!$A$8:$Y$67, 5, FALSE))-VLOOKUP(crop_typ1, Database!A8:AB67, 28, FALSE)</f>
@@ -48382,13 +48372,13 @@
     </row>
     <row r="21" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="116" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="381" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="381" t="s">
-        <v>544</v>
-      </c>
       <c r="C21" s="150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D21" s="168"/>
       <c r="E21" s="168"/>
@@ -48396,7 +48386,7 @@
         <v>112</v>
       </c>
       <c r="G21" s="186" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H21" s="386">
         <v>0.09</v>
@@ -48424,7 +48414,7 @@
     </row>
     <row r="22" spans="1:22" s="92" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="382">
         <v>1</v>
@@ -48433,10 +48423,10 @@
       <c r="D22" s="168"/>
       <c r="E22" s="168"/>
       <c r="F22" s="123" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G22" s="188" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H22" s="386">
         <v>1</v>
@@ -48454,7 +48444,7 @@
     </row>
     <row r="23" spans="1:22" s="109" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B23" s="382">
         <v>5784</v>
@@ -48466,10 +48456,10 @@
       <c r="D23" s="168"/>
       <c r="E23" s="168"/>
       <c r="F23" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="G23" s="188" t="s">
         <v>549</v>
-      </c>
-      <c r="G23" s="188" t="s">
-        <v>550</v>
       </c>
       <c r="H23" s="389">
         <v>1</v>
@@ -48486,7 +48476,7 @@
     </row>
     <row r="24" spans="1:22" s="92" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="116" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B24" s="383">
         <v>0.05</v>
@@ -48496,11 +48486,11 @@
       </c>
       <c r="D24" s="168"/>
       <c r="E24" s="168"/>
-      <c r="F24" s="433" t="s">
-        <v>304</v>
+      <c r="F24" s="426" t="s">
+        <v>303</v>
       </c>
       <c r="G24" s="189" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H24" s="390">
         <v>8.7200000000000006</v>
@@ -48528,9 +48518,9 @@
       </c>
       <c r="D25" s="168"/>
       <c r="E25" s="168"/>
-      <c r="F25" s="433"/>
+      <c r="F25" s="426"/>
       <c r="G25" s="189" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H25" s="390">
         <v>0</v>
@@ -48550,7 +48540,7 @@
     </row>
     <row r="26" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B26" s="153">
         <f>SUM(F69:F72)</f>
@@ -48562,11 +48552,11 @@
       </c>
       <c r="D26" s="168"/>
       <c r="E26" s="168"/>
-      <c r="F26" s="432" t="s">
-        <v>500</v>
+      <c r="F26" s="425" t="s">
+        <v>499</v>
       </c>
       <c r="G26" s="186" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H26" s="118">
         <f>VLOOKUP(H16, Database!$A$8:$Y$67, MATCH(H18,Database!$A$7:$AA$7, 0),0)*IF(system_type="ZipRack", growing_area_pilot, stacked_growing_area_pilot)*H17/12</f>
@@ -48591,7 +48581,7 @@
     </row>
     <row r="27" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" s="266">
         <f>F73</f>
@@ -48603,9 +48593,9 @@
       </c>
       <c r="D27" s="168"/>
       <c r="E27" s="168"/>
-      <c r="F27" s="432"/>
+      <c r="F27" s="425"/>
       <c r="G27" s="186" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H27" s="119">
         <f>VLOOKUP(H16, Database!$A$8:$Y$67, MATCH(H18,Database!$A$7:$AA$7, 0),0)*IF(system_type="ZipRack", growing_area_full, stacked_growing_area_full)*H17/12</f>
@@ -48632,11 +48622,11 @@
       <c r="A28" s="4"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="F28" s="430" t="s">
-        <v>540</v>
+      <c r="F28" s="423" t="s">
+        <v>539</v>
       </c>
       <c r="G28" s="123" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28" s="264">
         <f>(H26/H22)*H24</f>
@@ -48665,9 +48655,9 @@
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="39"/>
-      <c r="F29" s="431"/>
+      <c r="F29" s="424"/>
       <c r="G29" s="123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H29" s="295">
         <f>(H27/H22)*H24</f>
@@ -48695,14 +48685,14 @@
         <v>78</v>
       </c>
       <c r="B30" s="391" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C30" s="39"/>
-      <c r="F30" s="434" t="s">
-        <v>539</v>
+      <c r="F30" s="427" t="s">
+        <v>538</v>
       </c>
       <c r="G30" s="123" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H30" s="120">
         <f>H40/H21</f>
@@ -48727,15 +48717,15 @@
     </row>
     <row r="31" spans="1:22" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="392" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="115"/>
-      <c r="F31" s="431"/>
+      <c r="F31" s="424"/>
       <c r="G31" s="123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31" s="121">
         <f>H41/H21</f>
@@ -48763,14 +48753,14 @@
         <v>76</v>
       </c>
       <c r="B32" s="393" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="115"/>
-      <c r="F32" s="426" t="s">
-        <v>490</v>
+      <c r="F32" s="419" t="s">
+        <v>489</v>
       </c>
       <c r="G32" s="137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H32" s="133">
         <f>H30*LOOKUP(H16, Consumables!$A$37:$A$118, Consumables!$D$37:$D$118)*(1/LOOKUP(H16, Consumables!$A$37:$A$118, Consumables!$G$37:$G$118))</f>
@@ -48798,12 +48788,12 @@
         <v>75</v>
       </c>
       <c r="B33" s="391" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="115"/>
-      <c r="F33" s="427"/>
+      <c r="F33" s="420"/>
       <c r="G33" s="137" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H33" s="133">
         <f>H31*LOOKUP(H16, Consumables!$A$37:$A$118, Consumables!$D$37:$D$118)*(1/LOOKUP(H16, Consumables!$A$37:$A$118, Consumables!$G$37:$G$118))</f>
@@ -48831,11 +48821,11 @@
         <v>74</v>
       </c>
       <c r="B34" s="394" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="115"/>
       <c r="F34" s="172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G34" s="168"/>
       <c r="H34" s="264">
@@ -48861,13 +48851,13 @@
         <v>157</v>
       </c>
       <c r="B35" s="394" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="425" t="s">
-        <v>566</v>
+        <v>160</v>
+      </c>
+      <c r="F35" s="418" t="s">
+        <v>565</v>
       </c>
       <c r="G35" s="123" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H35" s="170">
         <f>VLOOKUP($B34,Database!$A$123:$F$125,3,FALSE)</f>
@@ -48889,17 +48879,17 @@
     </row>
     <row r="36" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="166" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B36" s="394" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="162" t="s">
-        <v>451</v>
-      </c>
-      <c r="F36" s="425"/>
+        <v>450</v>
+      </c>
+      <c r="F36" s="418"/>
       <c r="G36" s="123" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H36" s="170">
         <f>VLOOKUP($B36,Database!$A$123:$F$125,4,FALSE)</f>
@@ -48924,14 +48914,14 @@
         <v>73</v>
       </c>
       <c r="B37" s="395" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C37" s="397">
         <v>241</v>
       </c>
-      <c r="F37" s="425"/>
+      <c r="F37" s="418"/>
       <c r="G37" s="123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H37" s="170">
         <f>VLOOKUP($B35,Database!$A$123:$F$125,2,FALSE)</f>
@@ -48953,17 +48943,17 @@
     </row>
     <row r="38" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="396" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C38" s="155">
         <v>5784</v>
       </c>
-      <c r="F38" s="425"/>
+      <c r="F38" s="418"/>
       <c r="G38" s="123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H38" s="122">
         <f>VLOOKUP($B$44,Database!$A126:$F127, 6, FALSE)</f>
@@ -48992,9 +48982,9 @@
         <f>C37*VLOOKUP(B37, Database!A70:J80, 5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="425"/>
+      <c r="F39" s="418"/>
       <c r="G39" s="123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H39" s="122">
         <f>SUM(H35:H38)</f>
@@ -49016,17 +49006,17 @@
     </row>
     <row r="40" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="183" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" s="386" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C40" s="115"/>
-      <c r="F40" s="428" t="s">
-        <v>541</v>
+      <c r="F40" s="421" t="s">
+        <v>540</v>
       </c>
       <c r="G40" s="137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H40" s="177">
         <f>H26*H35*H36*H37*H38</f>
@@ -49048,15 +49038,15 @@
     </row>
     <row r="41" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" s="396">
         <v>3.5</v>
       </c>
       <c r="C41" s="115"/>
-      <c r="F41" s="429"/>
+      <c r="F41" s="422"/>
       <c r="G41" s="137" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H41" s="181">
         <f>H27*H35*H36*H37*H38</f>
@@ -49084,15 +49074,15 @@
         <v>72</v>
       </c>
       <c r="B42" s="391" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="115"/>
       <c r="D42" s="47"/>
-      <c r="F42" s="424" t="s">
-        <v>564</v>
+      <c r="F42" s="417" t="s">
+        <v>563</v>
       </c>
       <c r="G42" s="180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H42" s="122" t="e">
         <f>(H30/VLOOKUP($B$37, Database!$A$70:$J$80, 5, FALSE))/4</f>
@@ -49116,12 +49106,12 @@
         <v>70</v>
       </c>
       <c r="B43" s="391" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="115"/>
-      <c r="F43" s="424"/>
+      <c r="F43" s="417"/>
       <c r="G43" s="137" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H43" s="122" t="e">
         <f>H42*B22</f>
@@ -49142,72 +49132,72 @@
     </row>
     <row r="44" spans="1:12" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="398" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="115"/>
     </row>
     <row r="45" spans="1:12" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="116" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="399" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C45" s="115"/>
-      <c r="G45" s="423" t="s">
-        <v>554</v>
-      </c>
-      <c r="H45" s="423"/>
-      <c r="I45" s="423"/>
+      <c r="G45" s="416" t="s">
+        <v>553</v>
+      </c>
+      <c r="H45" s="416"/>
+      <c r="I45" s="416"/>
     </row>
     <row r="46" spans="1:12" s="112" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B46" s="400">
         <v>0</v>
       </c>
       <c r="C46" s="115"/>
       <c r="F46" s="134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G46" s="137" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H46" s="137" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I46" s="168"/>
       <c r="J46" s="168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K46" s="168" t="s">
+        <v>636</v>
+      </c>
+      <c r="L46" s="168" t="s">
         <v>637</v>
-      </c>
-      <c r="L46" s="168" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="96" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B47" s="401">
         <v>0.09</v>
       </c>
       <c r="C47" s="115"/>
       <c r="F47" s="123" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G47" s="122">
         <f>SUM(I69:I72)</f>
         <v>118307.00568960002</v>
       </c>
       <c r="H47" s="123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I47" s="122">
         <f>SUM(V69:V72)/growing_area_full</f>
@@ -49226,20 +49216,20 @@
     </row>
     <row r="48" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="116" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B48" s="156">
         <v>0.05</v>
       </c>
       <c r="C48" s="46"/>
       <c r="F48" s="168" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G48" s="122">
         <v>1676052</v>
       </c>
       <c r="H48" s="123" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I48" s="122">
         <f>(SUM(I69:I72)/G48)</f>
@@ -49258,21 +49248,21 @@
     </row>
     <row r="49" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B49" s="402">
         <v>0</v>
       </c>
       <c r="C49" s="46"/>
       <c r="F49" s="123" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G49" s="184">
         <f>'Production Technologies'!H72*12</f>
         <v>2132</v>
       </c>
       <c r="H49" s="123" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I49" s="185">
         <f>G47/G49</f>
@@ -49291,21 +49281,21 @@
     </row>
     <row r="50" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="178" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B50" s="403" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" s="46"/>
       <c r="F50" s="123" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G50" s="184">
         <f>(C37*0.95*365)+1900*12</f>
         <v>106366.75</v>
       </c>
       <c r="H50" s="116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I50" s="185">
         <f>G47/G50</f>
@@ -49324,20 +49314,20 @@
     </row>
     <row r="51" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="178" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B51" s="386" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C51" s="46"/>
       <c r="F51" s="123" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G51" s="184">
         <v>1000</v>
       </c>
       <c r="H51" s="123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I51" s="122">
         <f>G47/G51</f>
@@ -49356,21 +49346,21 @@
     </row>
     <row r="52" spans="1:12" s="82" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="178" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B52" s="386" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C52" s="46"/>
       <c r="F52" s="123" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G52" s="122">
         <f>B18*B19/2.5</f>
         <v>873.6</v>
       </c>
       <c r="H52" s="123" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I52" s="122">
         <f>G47/G52</f>
@@ -49389,23 +49379,23 @@
     </row>
     <row r="53" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="342" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B53" s="386" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
       <c r="F53" s="123" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G53" s="185">
         <f>(G48*Database!B145/1000000)</f>
         <v>390.52011599999997</v>
       </c>
       <c r="H53" s="123" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I53" s="168">
         <f>G47/G53</f>
@@ -49426,14 +49416,14 @@
       <c r="D54" s="6"/>
       <c r="E54" s="40"/>
       <c r="F54" s="123" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G54" s="185">
         <f>((G48*B49*0.283)/1000)+((G50*20/1000000)*344/1000)</f>
         <v>0.73180323999999997</v>
       </c>
       <c r="H54" s="123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I54" s="122">
         <f>G47/G54</f>
@@ -49452,21 +49442,21 @@
     </row>
     <row r="55" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" s="52"/>
       <c r="C55" s="40"/>
       <c r="D55" s="6"/>
       <c r="E55" s="40"/>
       <c r="F55" s="123" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G55" s="122">
         <f>G53-G54</f>
         <v>389.78831276</v>
       </c>
       <c r="H55" s="123" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I55" s="122">
         <f>G47/G55</f>
@@ -49485,7 +49475,7 @@
     </row>
     <row r="56" spans="1:12" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="404">
         <v>2160000</v>
@@ -49494,14 +49484,14 @@
       <c r="D56" s="6"/>
       <c r="E56" s="40"/>
       <c r="F56" s="123" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G56" s="122">
         <f>SUM(H31:K31)*12</f>
         <v>1481819.7333333334</v>
       </c>
       <c r="H56" s="123" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I56" s="122">
         <f>G56/C18</f>
@@ -49536,20 +49526,20 @@
     </row>
     <row r="58" spans="1:12" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="378">
         <v>0</v>
       </c>
       <c r="C58" s="46"/>
       <c r="G58" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:12" s="85" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" s="405">
         <v>0</v>
@@ -49563,17 +49553,17 @@
     </row>
     <row r="60" spans="1:12" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="405" t="s">
         <v>210</v>
-      </c>
-      <c r="B60" s="405" t="s">
-        <v>211</v>
       </c>
       <c r="C60" s="46"/>
       <c r="G60" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="H60" s="39" t="s">
         <v>975</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>976</v>
       </c>
       <c r="J60"/>
     </row>
@@ -49590,7 +49580,7 @@
     </row>
     <row r="62" spans="1:12" s="96" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="229" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62" s="338"/>
       <c r="C62" s="28"/>
@@ -49618,7 +49608,7 @@
         <v>1342037</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J64" s="28"/>
     </row>
@@ -49633,7 +49623,7 @@
     </row>
     <row r="66" spans="1:22" s="96" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="145" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B66" s="340">
         <f ca="1">B56-B65</f>
@@ -49643,15 +49633,15 @@
     <row r="67" spans="1:22" s="96" customFormat="1" ht="13" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:22" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" s="77"/>
       <c r="C68" s="46"/>
       <c r="F68" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="G68" s="45" t="s">
         <v>460</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>461</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>21</v>
@@ -49701,10 +49691,10 @@
     </row>
     <row r="69" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C69" s="46"/>
       <c r="D69" s="28"/>
@@ -49780,7 +49770,7 @@
     </row>
     <row r="70" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B70" s="95"/>
       <c r="C70" s="46"/>
@@ -49857,7 +49847,7 @@
     </row>
     <row r="71" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B71" s="95"/>
       <c r="C71" s="46"/>
@@ -49934,7 +49924,7 @@
     </row>
     <row r="72" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B72" s="77"/>
       <c r="C72" s="46"/>
@@ -50011,7 +50001,7 @@
     </row>
     <row r="73" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B73" s="77"/>
       <c r="C73" s="46"/>
@@ -50148,15 +50138,15 @@
         <v>19</v>
       </c>
       <c r="C75" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D75" s="131"/>
       <c r="E75" s="131"/>
       <c r="F75" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H75" s="111" t="s">
         <v>21</v>
@@ -50605,10 +50595,10 @@
     </row>
     <row r="81" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="132" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B81" s="163" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C81" s="167"/>
       <c r="D81" s="131"/>
@@ -50766,7 +50756,7 @@
     </row>
     <row r="84" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="131"/>
       <c r="C84" s="131"/>
@@ -50776,7 +50766,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H84" s="111" t="s">
         <v>21</v>
@@ -51502,7 +51492,7 @@
     </row>
     <row r="95" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B95" s="111"/>
       <c r="C95" s="131"/>
@@ -51512,7 +51502,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H95" s="111" t="s">
         <v>21</v>
@@ -51638,7 +51628,7 @@
     </row>
     <row r="97" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B97" s="130" t="s">
         <v>44</v>
@@ -51717,10 +51707,10 @@
     </row>
     <row r="98" spans="1:22" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B98" s="132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C98" s="131"/>
       <c r="D98" s="131"/>
@@ -51796,7 +51786,7 @@
     </row>
     <row r="99" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B99" s="132" t="s">
         <v>100</v>
@@ -51873,7 +51863,7 @@
     </row>
     <row r="100" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B100" s="132" t="s">
         <v>100</v>
@@ -52053,7 +52043,7 @@
     </row>
     <row r="103" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" s="128"/>
       <c r="C103" s="129"/>
@@ -52154,7 +52144,7 @@
     </row>
     <row r="105" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B105" s="68"/>
       <c r="C105" s="131"/>
@@ -52231,7 +52221,7 @@
     </row>
     <row r="106" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B106" s="71"/>
       <c r="C106" s="131"/>
@@ -52308,7 +52298,7 @@
     </row>
     <row r="107" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B107" s="76"/>
       <c r="C107" s="65"/>
@@ -52379,7 +52369,7 @@
     </row>
     <row r="108" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B108" s="111"/>
       <c r="C108" s="111"/>
@@ -52480,7 +52470,7 @@
     </row>
     <row r="110" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="111" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
@@ -52631,7 +52621,7 @@
     </row>
     <row r="114" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="111" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B114" s="111" t="s">
         <v>59</v>
@@ -52645,7 +52635,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="111" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H114" s="111" t="s">
         <v>21</v>
@@ -52859,7 +52849,7 @@
     </row>
     <row r="117" spans="1:22" s="174" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="132" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B117" s="415">
         <v>7.34</v>
@@ -53039,7 +53029,7 @@
     </row>
     <row r="120" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B120" s="111" t="s">
         <v>59</v>
@@ -53499,7 +53489,7 @@
     </row>
     <row r="126" spans="1:22" s="136" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B126" s="415">
         <v>2200</v>
@@ -53579,7 +53569,7 @@
     </row>
     <row r="127" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="132" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B127" s="415">
         <v>624</v>
@@ -53760,7 +53750,7 @@
     </row>
     <row r="130" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B130" s="111"/>
       <c r="C130" s="131"/>
@@ -54161,7 +54151,7 @@
     </row>
     <row r="136" spans="1:22" s="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F136" s="406">
         <v>0</v>
@@ -54362,7 +54352,7 @@
     </row>
     <row r="139" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="132" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B139" s="131"/>
       <c r="C139" s="131"/>
@@ -54431,7 +54421,7 @@
     </row>
     <row r="140" spans="1:22" s="174" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="132" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F140" s="406">
         <f>9*6*30</f>
@@ -54566,20 +54556,20 @@
     </row>
     <row r="144" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P144" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P145" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q145" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P146" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q146" s="138">
         <v>3</v>
@@ -54587,7 +54577,7 @@
     </row>
     <row r="147" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P147" s="39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q147" s="138">
         <v>7</v>
@@ -54595,7 +54585,7 @@
     </row>
     <row r="148" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P148" s="39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q148" s="138">
         <v>21</v>
@@ -54603,7 +54593,7 @@
     </row>
     <row r="149" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P149" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q149" s="138">
         <v>38</v>
@@ -54611,7 +54601,7 @@
     </row>
     <row r="150" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P150" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q150" s="138">
         <v>12</v>
@@ -54619,7 +54609,7 @@
     </row>
     <row r="151" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P151" s="39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q151" s="138">
         <v>6</v>
@@ -54627,7 +54617,7 @@
     </row>
     <row r="152" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P152" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q152" s="138">
         <v>6</v>
@@ -54635,7 +54625,7 @@
     </row>
     <row r="153" spans="16:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P153" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q153" s="138">
         <v>7</v>
@@ -54652,6 +54642,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="F35:F39"/>
@@ -54662,11 +54657,6 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="L17">
@@ -54818,8 +54808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1AB830-BB86-434F-80B6-DAC5753A91A4}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -54838,7 +54828,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="82"/>
@@ -54849,38 +54839,38 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="419" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
-      <c r="K2" s="418"/>
+      <c r="A2" s="431" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="431"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
     </row>
     <row r="3" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="436" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="436"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="418"/>
-      <c r="F3" s="418"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="418"/>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
+      <c r="A3" s="432" t="s">
+        <v>978</v>
+      </c>
+      <c r="B3" s="432"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="433"/>
+      <c r="I3" s="433"/>
+      <c r="J3" s="433"/>
+      <c r="K3" s="433"/>
     </row>
     <row r="4" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
@@ -54894,23 +54884,23 @@
       <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="422" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="422"/>
-      <c r="C5" s="418"/>
-      <c r="D5" s="418"/>
-      <c r="E5" s="418"/>
-      <c r="F5" s="418"/>
-      <c r="G5" s="418"/>
-      <c r="H5" s="418"/>
-      <c r="I5" s="418"/>
-      <c r="J5" s="418"/>
-      <c r="K5" s="418"/>
+      <c r="A5" s="434" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="434"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="430"/>
+      <c r="K5" s="430"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="81"/>
@@ -54925,7 +54915,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="73"/>
       <c r="C7" s="82"/>
@@ -54937,7 +54927,7 @@
     </row>
     <row r="8" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -54961,7 +54951,7 @@
     </row>
     <row r="10" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="84"/>
@@ -54976,10 +54966,10 @@
     <row r="11" spans="1:11" s="98" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="158" t="s">
+        <v>881</v>
+      </c>
+      <c r="C11" s="158" t="s">
         <v>882</v>
-      </c>
-      <c r="C11" s="158" t="s">
-        <v>883</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99"/>
@@ -54987,7 +54977,7 @@
     </row>
     <row r="12" spans="1:11" s="98" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="158" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="325">
         <f>facility_size_pilot</f>
@@ -55003,7 +54993,7 @@
     </row>
     <row r="13" spans="1:11" s="98" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="158" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="325">
         <f>facility_size_full</f>
@@ -55024,7 +55014,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
       <c r="F14" s="435" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="435"/>
       <c r="H14" s="435"/>
@@ -55034,38 +55024,38 @@
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="158" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="158" t="s">
+      <c r="D15" s="158" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="230" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="158" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="230" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="231" t="s">
-        <v>234</v>
-      </c>
       <c r="H15" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="157" t="s">
         <v>230</v>
-      </c>
-      <c r="I15" s="157" t="s">
-        <v>231</v>
       </c>
       <c r="J15" s="82"/>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="323">
         <v>0</v>
@@ -55097,7 +55087,7 @@
     </row>
     <row r="17" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="323">
         <v>0</v>
@@ -55130,7 +55120,7 @@
     </row>
     <row r="18" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="323">
         <v>0</v>
@@ -55162,7 +55152,7 @@
     </row>
     <row r="19" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="158" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="323">
         <v>0</v>
@@ -55187,7 +55177,7 @@
     </row>
     <row r="20" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="299">
         <v>0</v>
@@ -55213,7 +55203,7 @@
     </row>
     <row r="21" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" s="299">
         <f>SUM(B16:B20)</f>
@@ -55249,36 +55239,36 @@
     </row>
     <row r="23" spans="1:11" s="82" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="229" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="158" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="230" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="158" t="s">
-        <v>425</v>
-      </c>
-      <c r="E23" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" s="230" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="231" t="s">
-        <v>234</v>
-      </c>
       <c r="H23" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="157" t="s">
         <v>230</v>
-      </c>
-      <c r="I23" s="157" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" s="323">
         <v>0</v>
@@ -55312,7 +55302,7 @@
     </row>
     <row r="25" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="323">
         <v>0</v>
@@ -55348,7 +55338,7 @@
     </row>
     <row r="26" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="158" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="323">
         <v>0</v>
@@ -55381,7 +55371,7 @@
     </row>
     <row r="27" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="158" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="323">
         <v>0</v>
@@ -55416,7 +55406,7 @@
     </row>
     <row r="28" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="158" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="323">
         <v>0</v>
@@ -55449,7 +55439,7 @@
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="158" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="299">
         <v>0</v>
@@ -55484,7 +55474,7 @@
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="299">
         <v>0</v>
@@ -55519,7 +55509,7 @@
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="299">
         <v>0</v>
@@ -55554,7 +55544,7 @@
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="323">
         <v>0</v>
@@ -55589,7 +55579,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" s="323">
         <v>0</v>
@@ -55626,7 +55616,7 @@
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="229" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B34" s="324">
         <v>0</v>
@@ -55670,26 +55660,26 @@
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="49" t="s">
         <v>281</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>282</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="309" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="309"/>
       <c r="C37" s="320">
@@ -55714,7 +55704,7 @@
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="321" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C38" s="322">
         <f ca="1">LOOKUP(Overview!$B$12, 'CapEx Breakdown'!$D$44:$H$44, 'CapEx Breakdown'!$D$51:$G$51)*C12</f>
@@ -55734,12 +55724,12 @@
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="61" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -55748,39 +55738,39 @@
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="190" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="157" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="157" t="s">
-        <v>249</v>
-      </c>
       <c r="D44" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="E44" s="157" t="s">
         <v>814</v>
       </c>
-      <c r="E44" s="157" t="s">
+      <c r="F44" s="157" t="s">
+        <v>809</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>818</v>
+      </c>
+      <c r="H44" s="157" t="s">
+        <v>819</v>
+      </c>
+      <c r="J44" s="313" t="s">
         <v>815</v>
       </c>
-      <c r="F44" s="157" t="s">
-        <v>810</v>
-      </c>
-      <c r="G44" s="157" t="s">
-        <v>819</v>
-      </c>
-      <c r="H44" s="157" t="s">
-        <v>820</v>
-      </c>
-      <c r="J44" s="313" t="s">
+      <c r="K44" s="157" t="s">
         <v>816</v>
-      </c>
-      <c r="K44" s="157" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="301" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="157"/>
       <c r="C45" s="157"/>
@@ -55799,7 +55789,7 @@
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="314">
         <v>795</v>
@@ -55837,7 +55827,7 @@
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="314">
         <v>437</v>
@@ -55875,7 +55865,7 @@
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="314">
         <v>995</v>
@@ -55913,7 +55903,7 @@
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="301" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49" s="314"/>
       <c r="C49" s="314"/>
@@ -55941,7 +55931,7 @@
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" s="314">
         <v>2490</v>
@@ -55973,7 +55963,7 @@
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" s="314">
         <v>1328</v>
@@ -56005,7 +55995,7 @@
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" s="314">
         <v>2490</v>
@@ -56037,7 +56027,7 @@
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="301" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53" s="314"/>
       <c r="C53" s="314"/>
@@ -56065,7 +56055,7 @@
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54" s="314">
         <v>1936</v>
@@ -56097,7 +56087,7 @@
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="314">
         <v>883</v>
@@ -56129,7 +56119,7 @@
     </row>
     <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56" s="314">
         <v>1787</v>
@@ -56167,21 +56157,21 @@
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="190" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B58" s="157" t="s">
+        <v>528</v>
+      </c>
+      <c r="C58" s="157" t="s">
+        <v>811</v>
+      </c>
+      <c r="D58" s="157" t="s">
         <v>529</v>
-      </c>
-      <c r="C58" s="157" t="s">
-        <v>812</v>
-      </c>
-      <c r="D58" s="157" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="157" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B59" s="303">
         <f>SUM(B60:B64)</f>
@@ -56198,7 +56188,7 @@
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="157" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B60" s="157">
         <f>50/1000</f>
@@ -56215,7 +56205,7 @@
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="157" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B61" s="157">
         <f>250/1000</f>
@@ -56232,7 +56222,7 @@
     </row>
     <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="157" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B62" s="157">
         <f>124/1000</f>
@@ -56249,7 +56239,7 @@
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="157" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B63" s="157">
         <f>150/1000</f>
@@ -56266,7 +56256,7 @@
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="157" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B64" s="157">
         <f>426/1000</f>
@@ -56283,7 +56273,7 @@
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="157" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B65" s="157"/>
       <c r="C65" s="157">
@@ -56297,7 +56287,7 @@
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="157" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B66" s="157"/>
       <c r="C66" s="157">
@@ -56317,17 +56307,17 @@
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="190" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B68" s="304" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="157" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B69" s="305">
         <v>0.1181</v>
@@ -56337,7 +56327,7 @@
     </row>
     <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="157" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B70" s="305">
         <v>0.54390000000000005</v>
@@ -56347,7 +56337,7 @@
     </row>
     <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="157" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B71" s="305">
         <v>0.14649999999999999</v>
@@ -56357,7 +56347,7 @@
     </row>
     <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="157" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" s="305">
         <v>9.1800000000000007E-2</v>
@@ -56367,7 +56357,7 @@
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B73" s="305">
         <v>1.9300000000000001E-2</v>
@@ -56377,7 +56367,7 @@
     </row>
     <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="157" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B74" s="305">
         <v>1.1999999999999999E-3</v>
@@ -56387,7 +56377,7 @@
     </row>
     <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="157" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B75" s="305">
         <v>3.5999999999999997E-2</v>
@@ -56397,7 +56387,7 @@
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="157" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="305">
         <v>8.9999999999999993E-3</v>
@@ -56407,7 +56397,7 @@
     </row>
     <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="157" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B77" s="303">
         <v>0</v>
@@ -56417,7 +56407,7 @@
     </row>
     <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="157" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B78" s="305">
         <v>3.4200000000000001E-2</v>
@@ -56484,12 +56474,12 @@
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -56540,7 +56530,7 @@
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -56587,10 +56577,10 @@
         <v>12</v>
       </c>
       <c r="K6" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -56598,31 +56588,31 @@
         <v>13</v>
       </c>
       <c r="B7" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="E7" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="F7" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="90" t="s">
+      <c r="G7" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="H7" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="I7" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="J7" s="90" t="s">
         <v>266</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>267</v>
       </c>
       <c r="K7" s="90" t="s">
         <v>100</v>
@@ -56636,31 +56626,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="90" t="s">
+      <c r="G8" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="H8" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="I8" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="J8" s="90" t="s">
         <v>272</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>273</v>
       </c>
       <c r="K8" s="90" t="s">
         <v>100</v>
@@ -56674,31 +56664,31 @@
         <v>15</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="H9" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="90" t="s">
-        <v>276</v>
-      </c>
       <c r="I9" s="90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J9" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K9" s="90" t="s">
         <v>100</v>
@@ -56712,31 +56702,31 @@
         <v>16</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="H10" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="90" t="s">
-        <v>279</v>
-      </c>
       <c r="I10" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J10" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K10" s="90" t="s">
         <v>100</v>
@@ -56789,10 +56779,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -56800,10 +56790,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="91">
         <v>0.05</v>
@@ -56838,10 +56828,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="91">
         <v>0.15</v>
@@ -56900,7 +56890,7 @@
         <v>0.05</v>
       </c>
       <c r="J15" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="100">
         <v>1.25</v>
@@ -56938,7 +56928,7 @@
         <v>0.15</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="100">
         <v>1.25</v>
@@ -56962,7 +56952,7 @@
     </row>
     <row r="20" spans="1:13" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -56979,13 +56969,13 @@
     </row>
     <row r="21" spans="1:13" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="106"/>
-      <c r="B21" s="437" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
+      <c r="B21" s="436" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -56996,22 +56986,22 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="E22" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>441</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>442</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
@@ -57023,7 +57013,7 @@
     </row>
     <row r="23" spans="1:13" s="368" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B23" s="370">
         <v>0.05</v>
@@ -57043,7 +57033,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B24" s="93">
         <v>0.06</v>
@@ -57070,7 +57060,7 @@
     </row>
     <row r="25" spans="1:13" s="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B25" s="93">
         <v>0.03</v>
@@ -57097,7 +57087,7 @@
     </row>
     <row r="26" spans="1:13" s="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B26" s="93">
         <v>0.01</v>
@@ -57117,7 +57107,7 @@
     </row>
     <row r="27" spans="1:13" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="93">
         <v>0.05</v>
@@ -57155,7 +57145,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -57173,7 +57163,7 @@
     <row r="31" spans="1:13" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="106"/>
       <c r="B31" s="107" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -57189,7 +57179,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="112">
         <v>0.01</v>
@@ -57208,7 +57198,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -57225,13 +57215,13 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="106"/>
-      <c r="B35" s="437" t="s">
-        <v>443</v>
-      </c>
-      <c r="C35" s="437"/>
-      <c r="D35" s="437"/>
-      <c r="E35" s="437"/>
-      <c r="F35" s="437"/>
+      <c r="B35" s="436" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="436"/>
+      <c r="D35" s="436"/>
+      <c r="E35" s="436"/>
+      <c r="F35" s="436"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -57241,25 +57231,25 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B36" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="E36" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>441</v>
       </c>
-      <c r="E36" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>442</v>
-      </c>
       <c r="G36" s="179" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -59456,12 +59446,12 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -59503,7 +59493,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -59524,7 +59514,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
@@ -59553,106 +59543,106 @@
       <c r="G6" s="108"/>
       <c r="H6" s="108"/>
       <c r="I6" s="108"/>
-      <c r="J6" s="438" t="s">
-        <v>978</v>
-      </c>
-      <c r="K6" s="438"/>
-      <c r="L6" s="438"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
-      <c r="O6" s="438"/>
+      <c r="J6" s="437" t="s">
+        <v>977</v>
+      </c>
+      <c r="K6" s="437"/>
+      <c r="L6" s="437"/>
+      <c r="M6" s="437"/>
+      <c r="N6" s="437"/>
+      <c r="O6" s="437"/>
       <c r="P6" s="110"/>
       <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:28" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="190" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="238" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="238" t="s">
+      <c r="D7" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="238" t="s">
+      <c r="E7" s="238" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="238" t="s">
+      <c r="F7" s="238" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="238" t="s">
+      <c r="G7" s="238" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="238" t="s">
+      <c r="H7" s="238" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="238" t="s">
+      <c r="I7" s="238" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" s="238" t="s">
+        <v>426</v>
+      </c>
+      <c r="K7" s="238" t="s">
+        <v>455</v>
+      </c>
+      <c r="L7" s="239" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="238" t="s">
+        <v>428</v>
+      </c>
+      <c r="N7" s="238" t="s">
+        <v>435</v>
+      </c>
+      <c r="O7" s="238" t="s">
+        <v>429</v>
+      </c>
+      <c r="P7" s="238" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q7" s="238" t="s">
+        <v>431</v>
+      </c>
+      <c r="R7" s="238" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="238" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="V7" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="238" t="s">
+        <v>189</v>
+      </c>
+      <c r="X7" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y7" s="238" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z7" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="238" t="s">
-        <v>437</v>
-      </c>
-      <c r="J7" s="238" t="s">
-        <v>427</v>
-      </c>
-      <c r="K7" s="238" t="s">
-        <v>456</v>
-      </c>
-      <c r="L7" s="239" t="s">
-        <v>428</v>
-      </c>
-      <c r="M7" s="238" t="s">
-        <v>429</v>
-      </c>
-      <c r="N7" s="238" t="s">
-        <v>436</v>
-      </c>
-      <c r="O7" s="238" t="s">
-        <v>430</v>
-      </c>
-      <c r="P7" s="238" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q7" s="238" t="s">
-        <v>432</v>
-      </c>
-      <c r="R7" s="238" t="s">
-        <v>185</v>
-      </c>
-      <c r="S7" s="238" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="238" t="s">
-        <v>187</v>
-      </c>
-      <c r="U7" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="V7" s="238" t="s">
-        <v>189</v>
-      </c>
-      <c r="W7" s="238" t="s">
-        <v>190</v>
-      </c>
-      <c r="X7" s="238" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="238" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z7" s="238" t="s">
-        <v>184</v>
-      </c>
       <c r="AA7" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB7" s="371" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B8" s="240">
         <v>0</v>
@@ -59737,7 +59727,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="157" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="240">
         <v>0</v>
@@ -59822,7 +59812,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="157" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B10" s="240">
         <v>0</v>
@@ -59907,7 +59897,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="157" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B11" s="240">
         <v>0</v>
@@ -59992,7 +59982,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="157" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="240">
         <v>0</v>
@@ -60077,7 +60067,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="157" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" s="240">
         <v>0</v>
@@ -60162,7 +60152,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B14" s="240">
         <v>0</v>
@@ -60247,7 +60237,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="245">
         <v>295</v>
@@ -60332,7 +60322,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="240">
         <v>0</v>
@@ -60417,7 +60407,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="157" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" s="240">
         <v>0</v>
@@ -60502,7 +60492,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="157" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="240">
         <v>0</v>
@@ -60587,7 +60577,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="240">
         <v>0</v>
@@ -60672,7 +60662,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="245">
         <v>295</v>
@@ -60757,7 +60747,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" s="240">
         <v>0</v>
@@ -60842,7 +60832,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B22" s="240">
         <v>0</v>
@@ -60927,7 +60917,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="157" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" s="240">
         <v>0</v>
@@ -61012,7 +61002,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="157" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" s="240">
         <v>0</v>
@@ -61097,7 +61087,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="157" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B25" s="240">
         <v>0</v>
@@ -61182,7 +61172,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" s="240">
         <v>0</v>
@@ -61267,7 +61257,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B27" s="240">
         <v>0</v>
@@ -61352,7 +61342,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="157" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" s="240">
         <v>0</v>
@@ -61437,7 +61427,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="157" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B29" s="240">
         <v>0</v>
@@ -61523,7 +61513,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B30" s="240">
         <v>0</v>
@@ -61613,7 +61603,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="245">
         <v>295</v>
@@ -61698,7 +61688,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="157" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B32" s="240">
         <v>0</v>
@@ -61783,7 +61773,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="157" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B33" s="240">
         <v>0</v>
@@ -61868,7 +61858,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="157" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B34" s="240">
         <v>0</v>
@@ -61953,7 +61943,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B35" s="240">
         <v>0</v>
@@ -62038,7 +62028,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" s="240">
         <v>0</v>
@@ -62120,7 +62110,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="157" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B37" s="240">
         <v>0</v>
@@ -62202,7 +62192,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="157" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B38" s="240">
         <v>0</v>
@@ -62284,7 +62274,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="157" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" s="240">
         <v>0</v>
@@ -62366,7 +62356,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40" s="240">
         <v>0</v>
@@ -62448,7 +62438,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="157" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" s="240">
         <v>0</v>
@@ -62530,7 +62520,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="157" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B42" s="240">
         <v>0</v>
@@ -62612,7 +62602,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B43" s="240">
         <v>0</v>
@@ -62694,7 +62684,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="157" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" s="240">
         <v>0</v>
@@ -62776,7 +62766,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B45" s="240">
         <v>0</v>
@@ -62858,7 +62848,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="240">
         <v>0</v>
@@ -62940,7 +62930,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="157" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="240">
         <v>0</v>
@@ -63022,7 +63012,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="157" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" s="240">
         <v>0</v>
@@ -63104,7 +63094,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="157" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B49" s="240">
         <v>0</v>
@@ -63186,7 +63176,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="157" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" s="240">
         <v>0</v>
@@ -63268,7 +63258,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="157" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" s="240">
         <v>0</v>
@@ -63350,7 +63340,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="240">
         <v>0</v>
@@ -63432,7 +63422,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="240">
         <v>0</v>
@@ -63514,7 +63504,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B54" s="252">
         <v>0</v>
@@ -63599,7 +63589,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="157" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B55" s="240">
         <v>0</v>
@@ -63681,7 +63671,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="157" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" s="240">
         <v>0</v>
@@ -63766,7 +63756,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="240">
         <v>0</v>
@@ -63851,7 +63841,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="157" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B58" s="240">
         <v>0</v>
@@ -63936,7 +63926,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B59" s="240">
         <v>0</v>
@@ -64021,7 +64011,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="157" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" s="240">
         <v>0</v>
@@ -64106,7 +64096,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="245">
         <v>295</v>
@@ -64191,7 +64181,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="157" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" s="240">
         <v>0</v>
@@ -64276,7 +64266,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="245">
         <v>255</v>
@@ -64361,7 +64351,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="157" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B64" s="240">
         <v>0</v>
@@ -64446,7 +64436,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="157" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B65" s="240">
         <v>0</v>
@@ -64531,7 +64521,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B66" s="240">
         <v>0</v>
@@ -64616,7 +64606,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="240">
         <v>0</v>
@@ -64730,34 +64720,34 @@
     </row>
     <row r="69" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="190" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" s="225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" s="225" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="225" t="s">
+      <c r="D69" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="225" t="s">
+      <c r="E69" s="225" t="s">
         <v>448</v>
       </c>
-      <c r="E69" s="225" t="s">
+      <c r="F69" s="366" t="s">
+        <v>951</v>
+      </c>
+      <c r="G69" s="225" t="s">
         <v>449</v>
       </c>
-      <c r="F69" s="366" t="s">
-        <v>952</v>
-      </c>
-      <c r="G69" s="225" t="s">
-        <v>450</v>
-      </c>
       <c r="H69" s="254" t="s">
+        <v>667</v>
+      </c>
+      <c r="I69" s="225" t="s">
         <v>668</v>
       </c>
-      <c r="I69" s="225" t="s">
-        <v>669</v>
-      </c>
       <c r="J69" s="225" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K69" s="60"/>
       <c r="L69" s="60"/>
@@ -64779,13 +64769,13 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B70" s="255">
         <v>1</v>
       </c>
       <c r="C70" s="367" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D70" s="225">
         <f>(((1/3)*1.686)+0.4)*(5.823+1.22+0.61)</f>
@@ -64809,7 +64799,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="256" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K70" s="60"/>
       <c r="L70" s="60"/>
@@ -64831,7 +64821,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B71" s="255">
         <v>1</v>
@@ -64856,7 +64846,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="256" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K71" s="60"/>
       <c r="L71" s="60"/>
@@ -64878,7 +64868,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="157" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B72" s="255">
         <v>1</v>
@@ -64903,7 +64893,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="256" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K72" s="60"/>
       <c r="L72" s="60"/>
@@ -64925,7 +64915,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="157" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B73" s="255">
         <v>1</v>
@@ -64950,7 +64940,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="256" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K73" s="60"/>
       <c r="L73" s="60"/>
@@ -64972,7 +64962,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="157" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B74" s="255">
         <v>1</v>
@@ -64997,7 +64987,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="256" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K74" s="60"/>
       <c r="L74" s="60"/>
@@ -65019,7 +65009,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="157" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B75" s="255">
         <v>1</v>
@@ -65044,7 +65034,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="256" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K75" s="60"/>
       <c r="L75" s="60"/>
@@ -65066,7 +65056,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="157" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B76" s="255">
         <v>1</v>
@@ -65091,7 +65081,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="256" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K76" s="60"/>
       <c r="L76" s="60"/>
@@ -65113,7 +65103,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="157" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B77" s="255">
         <v>1</v>
@@ -65138,7 +65128,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="256" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K77" s="60"/>
       <c r="L77" s="60"/>
@@ -65160,7 +65150,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="157" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B78" s="255">
         <v>1</v>
@@ -65185,7 +65175,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="256" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K78" s="60"/>
       <c r="L78" s="60"/>
@@ -65207,7 +65197,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="157" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B79" s="255">
         <v>1</v>
@@ -65254,7 +65244,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B80" s="255">
         <v>1</v>
@@ -65330,87 +65320,87 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="190" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B82" s="225" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82" s="225" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D82" s="225" t="s">
+        <v>363</v>
+      </c>
+      <c r="E82" s="225" t="s">
+        <v>317</v>
+      </c>
+      <c r="F82" s="250" t="s">
+        <v>451</v>
+      </c>
+      <c r="G82" s="225" t="s">
+        <v>365</v>
+      </c>
+      <c r="H82" s="225" t="s">
+        <v>320</v>
+      </c>
+      <c r="I82" s="160" t="s">
         <v>364</v>
       </c>
-      <c r="E82" s="225" t="s">
-        <v>318</v>
-      </c>
-      <c r="F82" s="250" t="s">
-        <v>452</v>
-      </c>
-      <c r="G82" s="225" t="s">
-        <v>366</v>
-      </c>
-      <c r="H82" s="225" t="s">
+      <c r="J82" s="225" t="s">
         <v>321</v>
       </c>
-      <c r="I82" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="J82" s="225" t="s">
-        <v>322</v>
-      </c>
       <c r="K82" s="160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L82" s="225" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M82" s="225" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N82" s="225" t="s">
+        <v>327</v>
+      </c>
+      <c r="O82" s="225" t="s">
         <v>328</v>
       </c>
-      <c r="O82" s="225" t="s">
-        <v>329</v>
-      </c>
       <c r="P82" s="225" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q82" s="160" t="s">
+        <v>342</v>
+      </c>
+      <c r="R82" s="160" t="s">
+        <v>343</v>
+      </c>
+      <c r="S82" s="160" t="s">
+        <v>348</v>
+      </c>
+      <c r="T82" s="225" t="s">
         <v>331</v>
       </c>
-      <c r="Q82" s="160" t="s">
-        <v>343</v>
-      </c>
-      <c r="R82" s="160" t="s">
-        <v>344</v>
-      </c>
-      <c r="S82" s="160" t="s">
-        <v>349</v>
-      </c>
-      <c r="T82" s="225" t="s">
+      <c r="U82" s="225" t="s">
         <v>332</v>
       </c>
-      <c r="U82" s="225" t="s">
-        <v>333</v>
-      </c>
       <c r="V82" s="225" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W82" s="225" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X82" s="257" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="157" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B83" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C83" s="225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D83" s="225">
         <v>200</v>
@@ -65470,21 +65460,21 @@
         <v>0</v>
       </c>
       <c r="W83" s="256" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X83" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="157" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B84" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C84" s="225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D84" s="225">
         <v>852</v>
@@ -65538,27 +65528,27 @@
         <v>0</v>
       </c>
       <c r="U84" s="225" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="V84" s="258">
         <v>0</v>
       </c>
       <c r="W84" s="256" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X84" s="257" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="157" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B85" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C85" s="225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D85" s="225">
         <v>1593</v>
@@ -65612,39 +65602,39 @@
         <v>0</v>
       </c>
       <c r="U85" s="225" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V85" s="258">
         <v>0</v>
       </c>
       <c r="W85" s="256" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X85" s="257" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B86" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C86" s="225" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" s="225">
         <v>320</v>
       </c>
       <c r="E86" s="225" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="258">
+        <v>0</v>
+      </c>
+      <c r="G86" s="225" t="s">
         <v>319</v>
-      </c>
-      <c r="F86" s="258">
-        <v>0</v>
-      </c>
-      <c r="G86" s="225" t="s">
-        <v>320</v>
       </c>
       <c r="H86" s="225">
         <v>2.4</v>
@@ -65653,22 +65643,22 @@
         <v>0</v>
       </c>
       <c r="J86" s="225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K86" s="258">
         <v>0</v>
       </c>
       <c r="L86" s="225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M86" s="225" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N86" s="225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O86" s="225" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P86" s="225">
         <v>50000</v>
@@ -65683,30 +65673,30 @@
         <v>0</v>
       </c>
       <c r="T86" s="225" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U86" s="225" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V86" s="225" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W86" s="259" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X86" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="157" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B87" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C87" s="225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D87" s="225">
         <v>81</v>
@@ -65766,21 +65756,21 @@
         <v>0</v>
       </c>
       <c r="W87" s="256" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X87" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="157" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B88" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C88" s="225" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D88" s="225">
         <v>91</v>
@@ -65840,15 +65830,15 @@
         <v>0</v>
       </c>
       <c r="W88" s="256" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X88" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="157" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B89" s="225"/>
       <c r="C89" s="225"/>
@@ -65908,34 +65898,34 @@
         <v>0</v>
       </c>
       <c r="W89" s="256" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="X89" s="257"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="260" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B90" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C90" s="225" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D90" s="225">
         <v>250</v>
       </c>
       <c r="E90" s="225" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F90" s="160">
         <v>120</v>
       </c>
       <c r="G90" s="225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H90" s="225" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I90" s="159">
         <v>2.5</v>
@@ -65944,10 +65934,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="160" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L90" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M90" s="258">
         <v>0</v>
@@ -65962,54 +65952,54 @@
         <v>60000</v>
       </c>
       <c r="Q90" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R90" s="225">
         <v>3.5</v>
       </c>
       <c r="S90" s="225" t="s">
+        <v>349</v>
+      </c>
+      <c r="T90" s="255">
+        <v>0</v>
+      </c>
+      <c r="U90" s="225" t="s">
         <v>350</v>
       </c>
-      <c r="T90" s="255">
-        <v>0</v>
-      </c>
-      <c r="U90" s="225" t="s">
-        <v>351</v>
-      </c>
       <c r="V90" s="258">
         <v>0</v>
       </c>
       <c r="W90" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X90" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="260" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B91" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C91" s="225" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D91" s="225">
         <v>220</v>
       </c>
       <c r="E91" s="225" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F91" s="160">
         <v>120</v>
       </c>
       <c r="G91" s="225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H91" s="225" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I91" s="159">
         <v>2.2000000000000002</v>
@@ -66018,10 +66008,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L91" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M91" s="258">
         <v>0</v>
@@ -66036,54 +66026,54 @@
         <v>60000</v>
       </c>
       <c r="Q91" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R91" s="225">
         <v>4.5</v>
       </c>
       <c r="S91" s="225" t="s">
+        <v>349</v>
+      </c>
+      <c r="T91" s="255">
+        <v>0</v>
+      </c>
+      <c r="U91" s="225" t="s">
         <v>350</v>
       </c>
-      <c r="T91" s="255">
-        <v>0</v>
-      </c>
-      <c r="U91" s="225" t="s">
-        <v>351</v>
-      </c>
       <c r="V91" s="258">
         <v>0</v>
       </c>
       <c r="W91" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X91" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="260" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B92" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C92" s="225" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D92" s="225">
         <v>160</v>
       </c>
       <c r="E92" s="225" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F92" s="160">
         <v>120</v>
       </c>
       <c r="G92" s="225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H92" s="225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I92" s="159">
         <v>1.6</v>
@@ -66092,10 +66082,10 @@
         <v>0</v>
       </c>
       <c r="K92" s="160" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L92" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M92" s="258">
         <v>0</v>
@@ -66110,54 +66100,54 @@
         <v>60000</v>
       </c>
       <c r="Q92" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R92" s="225">
         <v>5.5</v>
       </c>
       <c r="S92" s="225" t="s">
+        <v>349</v>
+      </c>
+      <c r="T92" s="255">
+        <v>0</v>
+      </c>
+      <c r="U92" s="225" t="s">
         <v>350</v>
       </c>
-      <c r="T92" s="255">
-        <v>0</v>
-      </c>
-      <c r="U92" s="225" t="s">
-        <v>351</v>
-      </c>
       <c r="V92" s="258">
         <v>0</v>
       </c>
       <c r="W92" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X92" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="260" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B93" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C93" s="225" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D93" s="225">
         <v>375</v>
       </c>
       <c r="E93" s="225" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F93" s="160">
         <v>160</v>
       </c>
       <c r="G93" s="225" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H93" s="225" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I93" s="159">
         <v>2.5</v>
@@ -66166,10 +66156,10 @@
         <v>0</v>
       </c>
       <c r="K93" s="160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L93" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M93" s="258">
         <v>0</v>
@@ -66184,54 +66174,54 @@
         <v>60000</v>
       </c>
       <c r="Q93" s="225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R93" s="225">
         <v>5.3</v>
       </c>
       <c r="S93" s="225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T93" s="255">
         <v>0</v>
       </c>
       <c r="U93" s="225" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V93" s="258">
         <v>0</v>
       </c>
       <c r="W93" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X93" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="260" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B94" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C94" s="225" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D94" s="225">
         <v>330</v>
       </c>
       <c r="E94" s="225" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F94" s="160">
         <v>160</v>
       </c>
       <c r="G94" s="225" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H94" s="225" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I94" s="159">
         <v>2.2000000000000002</v>
@@ -66240,10 +66230,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L94" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M94" s="258">
         <v>0</v>
@@ -66258,54 +66248,54 @@
         <v>60000</v>
       </c>
       <c r="Q94" s="225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R94" s="225">
         <v>6.3</v>
       </c>
       <c r="S94" s="225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T94" s="255">
         <v>0</v>
       </c>
       <c r="U94" s="225" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V94" s="258">
         <v>0</v>
       </c>
       <c r="W94" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X94" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="260" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B95" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C95" s="225" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D95" s="225">
         <v>240</v>
       </c>
       <c r="E95" s="225" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F95" s="160">
         <v>160</v>
       </c>
       <c r="G95" s="225" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H95" s="225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I95" s="159">
         <v>1.6</v>
@@ -66314,10 +66304,10 @@
         <v>0</v>
       </c>
       <c r="K95" s="160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L95" s="225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M95" s="258">
         <v>0</v>
@@ -66332,39 +66322,39 @@
         <v>60000</v>
       </c>
       <c r="Q95" s="225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R95" s="225">
         <v>7.3</v>
       </c>
       <c r="S95" s="225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T95" s="255">
         <v>0</v>
       </c>
       <c r="U95" s="225" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V95" s="258">
         <v>0</v>
       </c>
       <c r="W95" s="256" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X95" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="260" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B96" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C96" s="225" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D96" s="225">
         <v>1712</v>
@@ -66424,18 +66414,18 @@
         <v>0</v>
       </c>
       <c r="W96" s="256" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="X96" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="260" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B97" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C97" s="225"/>
       <c r="D97" s="225">
@@ -66474,13 +66464,13 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="260" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B98" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C98" s="225" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D98" s="225">
         <v>491</v>
@@ -66534,27 +66524,27 @@
         <v>0</v>
       </c>
       <c r="U98" s="225" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="V98" s="258">
         <v>0</v>
       </c>
       <c r="W98" s="256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="X98" s="257" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="260" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B99" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C99" s="225" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D99" s="225">
         <v>533</v>
@@ -66608,27 +66598,27 @@
         <v>0</v>
       </c>
       <c r="U99" s="225" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="V99" s="258">
         <v>0</v>
       </c>
       <c r="W99" s="256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="X99" s="257" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="260" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B100" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="225" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D100" s="225">
         <v>210</v>
@@ -66688,21 +66678,21 @@
         <v>0</v>
       </c>
       <c r="W100" s="256" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X100" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="260" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B101" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C101" s="225" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D101" s="225">
         <v>210</v>
@@ -66762,21 +66752,21 @@
         <v>0</v>
       </c>
       <c r="W101" s="256" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X101" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="260" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B102" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C102" s="225" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D102" s="225">
         <v>210</v>
@@ -66836,21 +66826,21 @@
         <v>0</v>
       </c>
       <c r="W102" s="256" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X102" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="260" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B103" s="225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C103" s="225" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D103" s="225">
         <v>210</v>
@@ -66910,10 +66900,10 @@
         <v>0</v>
       </c>
       <c r="W103" s="256" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X103" s="257" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
@@ -66922,7 +66912,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="221" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B105" s="225"/>
       <c r="C105" s="225"/>
@@ -66954,28 +66944,28 @@
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="159"/>
       <c r="B106" s="257" t="s">
+        <v>586</v>
+      </c>
+      <c r="C106" s="225" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="225" t="s">
+      <c r="D106" s="225" t="s">
         <v>588</v>
       </c>
-      <c r="D106" s="225" t="s">
+      <c r="E106" s="225" t="s">
         <v>589</v>
       </c>
-      <c r="E106" s="225" t="s">
+      <c r="F106" s="225" t="s">
+        <v>332</v>
+      </c>
+      <c r="G106" s="225" t="s">
         <v>590</v>
       </c>
-      <c r="F106" s="225" t="s">
-        <v>333</v>
-      </c>
-      <c r="G106" s="225" t="s">
+      <c r="H106" s="225" t="s">
         <v>591</v>
       </c>
-      <c r="H106" s="225" t="s">
+      <c r="I106" s="225" t="s">
         <v>592</v>
-      </c>
-      <c r="I106" s="225" t="s">
-        <v>593</v>
       </c>
       <c r="J106" s="60"/>
       <c r="K106" s="60"/>
@@ -66998,31 +66988,31 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="257" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B107" s="257" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C107" s="225" t="s">
+        <v>594</v>
+      </c>
+      <c r="D107" s="261" t="s">
         <v>595</v>
       </c>
-      <c r="D107" s="261" t="s">
+      <c r="E107" s="261" t="s">
+        <v>595</v>
+      </c>
+      <c r="F107" s="261" t="s">
         <v>596</v>
       </c>
-      <c r="E107" s="261" t="s">
-        <v>596</v>
-      </c>
-      <c r="F107" s="261" t="s">
+      <c r="G107" s="261" t="s">
         <v>597</v>
       </c>
-      <c r="G107" s="261" t="s">
+      <c r="H107" s="261" t="s">
         <v>598</v>
       </c>
-      <c r="H107" s="261" t="s">
+      <c r="I107" s="225" t="s">
         <v>599</v>
-      </c>
-      <c r="I107" s="225" t="s">
-        <v>600</v>
       </c>
       <c r="J107" s="60"/>
       <c r="K107" s="60"/>
@@ -67048,28 +67038,28 @@
         <v>44197</v>
       </c>
       <c r="B108" s="257" t="s">
+        <v>593</v>
+      </c>
+      <c r="C108" s="225" t="s">
         <v>594</v>
       </c>
-      <c r="C108" s="225" t="s">
+      <c r="D108" s="261" t="s">
         <v>595</v>
       </c>
-      <c r="D108" s="261" t="s">
+      <c r="E108" s="261" t="s">
+        <v>595</v>
+      </c>
+      <c r="F108" s="261" t="s">
         <v>596</v>
       </c>
-      <c r="E108" s="261" t="s">
-        <v>596</v>
-      </c>
-      <c r="F108" s="261" t="s">
-        <v>597</v>
-      </c>
       <c r="G108" s="261" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H108" s="261" t="s">
+        <v>598</v>
+      </c>
+      <c r="I108" s="225" t="s">
         <v>599</v>
-      </c>
-      <c r="I108" s="225" t="s">
-        <v>600</v>
       </c>
       <c r="J108" s="60"/>
       <c r="K108" s="60"/>
@@ -67121,7 +67111,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="221" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B116" s="222"/>
       <c r="C116" s="222"/>
@@ -67141,7 +67131,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="223" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B117" s="224">
         <v>1</v>
@@ -67191,7 +67181,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" s="343">
         <v>0.12540000000000001</v>
@@ -67241,7 +67231,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" s="344">
         <v>0.1777</v>
@@ -67291,7 +67281,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="225" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="343">
         <v>0.2404</v>
@@ -67344,27 +67334,27 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="190" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B122" s="157" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C122" s="157" t="s">
         <v>74</v>
       </c>
       <c r="D122" s="157" t="s">
+        <v>495</v>
+      </c>
+      <c r="E122" s="157" t="s">
         <v>496</v>
       </c>
-      <c r="E122" s="157" t="s">
-        <v>497</v>
-      </c>
       <c r="F122" s="157" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="157">
         <v>1</v>
@@ -67384,7 +67374,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="157">
         <v>0.9</v>
@@ -67404,7 +67394,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" s="157">
         <v>0.6</v>
@@ -67424,7 +67414,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B126" s="157" t="s">
         <v>100</v>
@@ -67444,7 +67434,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="157" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B127" s="157" t="s">
         <v>100</v>
@@ -67467,7 +67457,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="345" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B129" s="346"/>
       <c r="C129" s="346"/>
@@ -67490,7 +67480,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="346" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B130" s="346"/>
       <c r="C130" s="346"/>
@@ -67503,7 +67493,7 @@
       <c r="J130" s="346"/>
       <c r="K130" s="346"/>
       <c r="L130" s="347" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M130" s="348"/>
       <c r="N130" s="348"/>
@@ -67515,7 +67505,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="346" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B131" s="346"/>
       <c r="C131" s="346"/>
@@ -67538,7 +67528,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="346" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B132" s="346"/>
       <c r="C132" s="346"/>
@@ -67584,101 +67574,101 @@
       <c r="A134" s="346"/>
       <c r="B134" s="346"/>
       <c r="C134" s="365" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D134" s="349" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E134" s="349" t="s">
+        <v>906</v>
+      </c>
+      <c r="F134" s="349" t="s">
+        <v>894</v>
+      </c>
+      <c r="G134" s="349" t="s">
+        <v>890</v>
+      </c>
+      <c r="H134" s="349" t="s">
         <v>907</v>
       </c>
-      <c r="F134" s="349" t="s">
-        <v>895</v>
-      </c>
-      <c r="G134" s="349" t="s">
-        <v>891</v>
-      </c>
-      <c r="H134" s="349" t="s">
+      <c r="I134" s="349" t="s">
         <v>908</v>
       </c>
-      <c r="I134" s="349" t="s">
+      <c r="J134" s="349" t="s">
+        <v>889</v>
+      </c>
+      <c r="K134" s="349" t="s">
         <v>909</v>
       </c>
-      <c r="J134" s="349" t="s">
-        <v>890</v>
-      </c>
-      <c r="K134" s="349" t="s">
+      <c r="L134" s="349" t="s">
+        <v>887</v>
+      </c>
+      <c r="M134" s="349" t="s">
         <v>910</v>
       </c>
-      <c r="L134" s="349" t="s">
+      <c r="N134" s="349" t="s">
+        <v>911</v>
+      </c>
+      <c r="O134" s="349" t="s">
         <v>888</v>
       </c>
-      <c r="M134" s="349" t="s">
-        <v>911</v>
-      </c>
-      <c r="N134" s="349" t="s">
+      <c r="P134" s="349" t="s">
         <v>912</v>
       </c>
-      <c r="O134" s="349" t="s">
-        <v>889</v>
-      </c>
-      <c r="P134" s="349" t="s">
+      <c r="Q134" s="349" t="s">
         <v>913</v>
       </c>
-      <c r="Q134" s="349" t="s">
+      <c r="R134" s="349" t="s">
         <v>914</v>
       </c>
-      <c r="R134" s="349" t="s">
+      <c r="S134" s="349" t="s">
         <v>915</v>
       </c>
-      <c r="S134" s="349" t="s">
+      <c r="T134" s="349"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="438" t="s">
         <v>916</v>
       </c>
-      <c r="T134" s="349"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A135" s="439" t="s">
+      <c r="B135" s="361" t="s">
         <v>917</v>
-      </c>
-      <c r="B135" s="361" t="s">
-        <v>918</v>
       </c>
       <c r="C135" s="244"/>
       <c r="D135" s="350" t="s">
+        <v>892</v>
+      </c>
+      <c r="E135" s="350" t="s">
+        <v>918</v>
+      </c>
+      <c r="F135" s="350" t="s">
         <v>893</v>
       </c>
-      <c r="E135" s="350" t="s">
+      <c r="G135" s="350" t="s">
+        <v>895</v>
+      </c>
+      <c r="H135" s="350" t="s">
         <v>919</v>
       </c>
-      <c r="F135" s="350" t="s">
-        <v>894</v>
-      </c>
-      <c r="G135" s="350" t="s">
+      <c r="I135" s="350" t="s">
+        <v>920</v>
+      </c>
+      <c r="J135" s="351" t="s">
+        <v>921</v>
+      </c>
+      <c r="K135" s="350" t="s">
+        <v>922</v>
+      </c>
+      <c r="L135" s="350" t="s">
+        <v>898</v>
+      </c>
+      <c r="M135" s="351" t="s">
+        <v>897</v>
+      </c>
+      <c r="N135" s="350" t="s">
         <v>896</v>
       </c>
-      <c r="H135" s="350" t="s">
-        <v>920</v>
-      </c>
-      <c r="I135" s="350" t="s">
-        <v>921</v>
-      </c>
-      <c r="J135" s="351" t="s">
-        <v>922</v>
-      </c>
-      <c r="K135" s="350" t="s">
-        <v>923</v>
-      </c>
-      <c r="L135" s="350" t="s">
+      <c r="O135" s="351" t="s">
         <v>899</v>
-      </c>
-      <c r="M135" s="351" t="s">
-        <v>898</v>
-      </c>
-      <c r="N135" s="350" t="s">
-        <v>897</v>
-      </c>
-      <c r="O135" s="351" t="s">
-        <v>900</v>
       </c>
       <c r="P135" s="350" t="s">
         <v>100</v>
@@ -67690,16 +67680,16 @@
         <v>100</v>
       </c>
       <c r="S135" s="351" t="s">
+        <v>923</v>
+      </c>
+      <c r="T135" s="356" t="s">
         <v>924</v>
       </c>
-      <c r="T135" s="356" t="s">
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="438"/>
+      <c r="B136" s="361" t="s">
         <v>925</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A136" s="439"/>
-      <c r="B136" s="361" t="s">
-        <v>926</v>
       </c>
       <c r="C136" s="244"/>
       <c r="D136" s="350">
@@ -67719,7 +67709,7 @@
         <v>20</v>
       </c>
       <c r="J136" s="351" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K136" s="350">
         <v>5</v>
@@ -67751,44 +67741,44 @@
       <c r="T136" s="356"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A137" s="439"/>
+      <c r="A137" s="438"/>
       <c r="B137" s="362" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C137" s="159"/>
       <c r="D137" s="349" t="s">
+        <v>927</v>
+      </c>
+      <c r="E137" s="349" t="s">
         <v>928</v>
-      </c>
-      <c r="E137" s="349" t="s">
-        <v>929</v>
       </c>
       <c r="F137" s="349"/>
       <c r="G137" s="349" t="s">
+        <v>929</v>
+      </c>
+      <c r="H137" s="349" t="s">
         <v>930</v>
-      </c>
-      <c r="H137" s="349" t="s">
-        <v>931</v>
       </c>
       <c r="I137" s="349" t="s">
         <v>100</v>
       </c>
       <c r="J137" s="352" t="s">
+        <v>931</v>
+      </c>
+      <c r="K137" s="349" t="s">
         <v>932</v>
       </c>
-      <c r="K137" s="349" t="s">
+      <c r="L137" s="349" t="s">
         <v>933</v>
       </c>
-      <c r="L137" s="349" t="s">
+      <c r="M137" s="352" t="s">
+        <v>931</v>
+      </c>
+      <c r="N137" s="349" t="s">
         <v>934</v>
       </c>
-      <c r="M137" s="352" t="s">
-        <v>932</v>
-      </c>
-      <c r="N137" s="349" t="s">
+      <c r="O137" s="349" t="s">
         <v>935</v>
-      </c>
-      <c r="O137" s="349" t="s">
-        <v>936</v>
       </c>
       <c r="P137" s="349" t="s">
         <v>100</v>
@@ -67800,16 +67790,16 @@
         <v>100</v>
       </c>
       <c r="S137" s="349" t="s">
+        <v>936</v>
+      </c>
+      <c r="T137" s="355" t="s">
         <v>937</v>
       </c>
-      <c r="T137" s="355" t="s">
-        <v>938</v>
-      </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A138" s="439"/>
+      <c r="A138" s="438"/>
       <c r="B138" s="363" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C138" s="159"/>
       <c r="D138" s="349">
@@ -67829,7 +67819,7 @@
         <v>100</v>
       </c>
       <c r="J138" s="352" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K138" s="349">
         <v>30</v>
@@ -67861,9 +67851,9 @@
       <c r="T138" s="355"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A139" s="439"/>
+      <c r="A139" s="438"/>
       <c r="B139" s="361" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C139" s="244"/>
       <c r="D139" s="353"/>
@@ -67880,20 +67870,20 @@
       <c r="O139" s="353"/>
       <c r="P139" s="353"/>
       <c r="Q139" s="350" t="s">
+        <v>939</v>
+      </c>
+      <c r="R139" s="350" t="s">
         <v>940</v>
-      </c>
-      <c r="R139" s="350" t="s">
-        <v>941</v>
       </c>
       <c r="S139" s="353"/>
       <c r="T139" s="360" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A140" s="439"/>
+      <c r="A140" s="438"/>
       <c r="B140" s="361" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C140" s="244"/>
       <c r="D140" s="353"/>
@@ -67919,7 +67909,7 @@
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="346"/>
       <c r="B141" s="364" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C141" s="159"/>
       <c r="D141" s="349" t="s">
@@ -67971,13 +67961,13 @@
         <v>100</v>
       </c>
       <c r="T141" s="355" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="346"/>
       <c r="B142" s="361" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C142" s="244">
         <v>233</v>
@@ -68042,7 +68032,7 @@
         <v>12.5</v>
       </c>
       <c r="T142" s="356" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
@@ -68068,7 +68058,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="359" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B144" s="359" t="str">
         <f>Overview!B53</f>
@@ -68094,7 +68084,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="346" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B145" s="346">
         <f>HLOOKUP(Overview!B53,C134:S142, 9, FALSE)</f>
@@ -68281,66 +68271,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="157" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1" s="328">
         <v>43910</v>
       </c>
-      <c r="C1" s="443" t="s">
+      <c r="C1" s="442" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="439" t="s">
         <v>821</v>
       </c>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="440" t="s">
+      <c r="G1" s="439"/>
+      <c r="H1" s="439"/>
+      <c r="I1" s="440" t="s">
         <v>822</v>
       </c>
-      <c r="G1" s="440"/>
-      <c r="H1" s="440"/>
-      <c r="I1" s="441" t="s">
+      <c r="J1" s="440"/>
+      <c r="K1" s="441" t="s">
         <v>823</v>
       </c>
-      <c r="J1" s="441"/>
-      <c r="K1" s="442" t="s">
-        <v>824</v>
-      </c>
-      <c r="L1" s="442"/>
+      <c r="L1" s="441"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="157" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" s="190" t="s">
         <v>825</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="C2" s="190" t="s">
         <v>826</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="D2" s="190" t="s">
         <v>827</v>
       </c>
-      <c r="D2" s="190" t="s">
+      <c r="E2" s="190" t="s">
         <v>828</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="F2" s="190" t="s">
         <v>829</v>
       </c>
-      <c r="F2" s="190" t="s">
+      <c r="G2" s="190" t="s">
         <v>830</v>
       </c>
-      <c r="G2" s="190" t="s">
+      <c r="H2" s="190" t="s">
+        <v>837</v>
+      </c>
+      <c r="I2" s="190" t="s">
         <v>831</v>
       </c>
-      <c r="H2" s="190" t="s">
+      <c r="J2" s="190" t="s">
+        <v>832</v>
+      </c>
+      <c r="K2" s="190" t="s">
+        <v>833</v>
+      </c>
+      <c r="L2" s="190" t="s">
         <v>838</v>
-      </c>
-      <c r="I2" s="190" t="s">
-        <v>832</v>
-      </c>
-      <c r="J2" s="190" t="s">
-        <v>833</v>
-      </c>
-      <c r="K2" s="190" t="s">
-        <v>834</v>
-      </c>
-      <c r="L2" s="190" t="s">
-        <v>839</v>
       </c>
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
@@ -68351,7 +68341,7 @@
       </c>
       <c r="B3" s="329"/>
       <c r="C3" s="330" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D3" s="330"/>
       <c r="E3" s="329"/>
@@ -68370,10 +68360,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="331" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C4" s="331" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D4" s="331">
         <v>2</v>
@@ -68384,7 +68374,7 @@
       <c r="F4" s="332"/>
       <c r="G4" s="332"/>
       <c r="H4" s="333" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I4" s="334"/>
       <c r="J4" s="334"/>
@@ -68429,7 +68419,7 @@
       </c>
       <c r="B6" s="329"/>
       <c r="C6" s="330" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D6" s="329"/>
       <c r="E6" s="329"/>
@@ -68448,10 +68438,10 @@
         <v>2.1</v>
       </c>
       <c r="B7" s="331" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C7" s="331" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D7" s="331">
         <v>3</v>
@@ -68462,7 +68452,7 @@
       <c r="F7" s="332"/>
       <c r="G7" s="332"/>
       <c r="H7" s="332" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I7" s="334"/>
       <c r="J7" s="334"/>
@@ -68482,10 +68472,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" s="331" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C8" s="331" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D8" s="331">
         <v>1</v>
@@ -68496,7 +68486,7 @@
       <c r="F8" s="332"/>
       <c r="G8" s="332"/>
       <c r="H8" s="332" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I8" s="334"/>
       <c r="J8" s="334"/>
@@ -68516,10 +68506,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B9" s="331" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C9" s="331" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D9" s="331">
         <v>4</v>
@@ -68530,7 +68520,7 @@
       <c r="F9" s="332"/>
       <c r="G9" s="332"/>
       <c r="H9" s="332" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I9" s="334"/>
       <c r="J9" s="334"/>
@@ -68551,7 +68541,7 @@
       </c>
       <c r="B10" s="329"/>
       <c r="C10" s="330" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D10" s="329"/>
       <c r="E10" s="329"/>
@@ -68570,10 +68560,10 @@
         <v>3.1</v>
       </c>
       <c r="B11" s="331" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C11" s="331" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D11" s="331">
         <v>2</v>
@@ -68584,7 +68574,7 @@
       <c r="F11" s="332"/>
       <c r="G11" s="332"/>
       <c r="H11" s="332" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I11" s="334"/>
       <c r="J11" s="334"/>
@@ -68604,10 +68594,10 @@
         <v>3.2</v>
       </c>
       <c r="B12" s="331" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C12" s="331" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D12" s="331">
         <v>2</v>
@@ -68618,7 +68608,7 @@
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="332" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I12" s="334"/>
       <c r="J12" s="334"/>
@@ -68639,7 +68629,7 @@
       </c>
       <c r="B13" s="329"/>
       <c r="C13" s="330" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D13" s="329"/>
       <c r="E13" s="329"/>
@@ -68683,7 +68673,7 @@
       </c>
       <c r="B15" s="329"/>
       <c r="C15" s="330" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D15" s="329"/>
       <c r="E15" s="329"/>
@@ -68702,10 +68692,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B16" s="331" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C16" s="331" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D16" s="335">
         <v>2</v>
@@ -68716,7 +68706,7 @@
       <c r="F16" s="332"/>
       <c r="G16" s="332"/>
       <c r="H16" s="332" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I16" s="334"/>
       <c r="J16" s="334"/>
@@ -68736,10 +68726,10 @@
         <v>5.2</v>
       </c>
       <c r="B17" s="331" t="s">
+        <v>851</v>
+      </c>
+      <c r="C17" s="331" t="s">
         <v>852</v>
-      </c>
-      <c r="C17" s="331" t="s">
-        <v>853</v>
       </c>
       <c r="D17" s="335">
         <v>2</v>
@@ -68750,7 +68740,7 @@
       <c r="F17" s="332"/>
       <c r="G17" s="332"/>
       <c r="H17" s="332" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I17" s="334"/>
       <c r="J17" s="334"/>
@@ -68771,7 +68761,7 @@
       </c>
       <c r="B18" s="329"/>
       <c r="C18" s="330" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D18" s="329"/>
       <c r="E18" s="329"/>
@@ -68790,10 +68780,10 @@
         <v>6.1</v>
       </c>
       <c r="B19" s="331" t="s">
+        <v>846</v>
+      </c>
+      <c r="C19" s="331" t="s">
         <v>847</v>
-      </c>
-      <c r="C19" s="331" t="s">
-        <v>848</v>
       </c>
       <c r="D19" s="331">
         <v>3</v>
@@ -68804,7 +68794,7 @@
       <c r="F19" s="332"/>
       <c r="G19" s="332"/>
       <c r="H19" s="332" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I19" s="334"/>
       <c r="J19" s="334"/>
@@ -68825,7 +68815,7 @@
       </c>
       <c r="B20" s="329"/>
       <c r="C20" s="330" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D20" s="329"/>
       <c r="E20" s="329"/>
@@ -68844,10 +68834,10 @@
         <v>7.1</v>
       </c>
       <c r="B21" s="331" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C21" s="331" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D21" s="331">
         <v>4</v>
@@ -68858,7 +68848,7 @@
       <c r="F21" s="332"/>
       <c r="G21" s="332"/>
       <c r="H21" s="332" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I21" s="334"/>
       <c r="J21" s="334"/>
@@ -68930,16 +68920,16 @@
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="157"/>
       <c r="B25" s="328"/>
-      <c r="C25" s="443" t="s">
+      <c r="C25" s="442" t="s">
+        <v>820</v>
+      </c>
+      <c r="D25" s="442"/>
+      <c r="E25" s="442"/>
+      <c r="F25" s="439" t="s">
         <v>821</v>
       </c>
-      <c r="D25" s="443"/>
-      <c r="E25" s="443"/>
-      <c r="F25" s="440" t="s">
-        <v>822</v>
-      </c>
-      <c r="G25" s="440"/>
-      <c r="H25" s="440"/>
+      <c r="G25" s="439"/>
+      <c r="H25" s="439"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
@@ -68949,28 +68939,28 @@
     </row>
     <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="157" t="s">
+        <v>873</v>
+      </c>
+      <c r="B26" s="190" t="s">
         <v>874</v>
       </c>
-      <c r="B26" s="190" t="s">
+      <c r="C26" s="190" t="s">
         <v>875</v>
       </c>
-      <c r="C26" s="190" t="s">
-        <v>876</v>
-      </c>
       <c r="D26" s="190" t="s">
+        <v>827</v>
+      </c>
+      <c r="E26" s="190" t="s">
         <v>828</v>
       </c>
-      <c r="E26" s="190" t="s">
+      <c r="F26" s="190" t="s">
         <v>829</v>
       </c>
-      <c r="F26" s="190" t="s">
+      <c r="G26" s="190" t="s">
         <v>830</v>
       </c>
-      <c r="G26" s="190" t="s">
-        <v>831</v>
-      </c>
       <c r="H26" s="190" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -68985,7 +68975,7 @@
       </c>
       <c r="B27" s="329"/>
       <c r="C27" s="330" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D27" s="330"/>
       <c r="E27" s="329"/>
@@ -69041,7 +69031,7 @@
       </c>
       <c r="B30" s="329"/>
       <c r="C30" s="330" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D30" s="329"/>
       <c r="E30" s="329"/>
@@ -69115,7 +69105,7 @@
       </c>
       <c r="B34" s="329"/>
       <c r="C34" s="330" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D34" s="329"/>
       <c r="E34" s="329"/>
@@ -69171,7 +69161,7 @@
       </c>
       <c r="B37" s="329"/>
       <c r="C37" s="330" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D37" s="329"/>
       <c r="E37" s="329"/>
@@ -69209,7 +69199,7 @@
       </c>
       <c r="B39" s="329"/>
       <c r="C39" s="330" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D39" s="329"/>
       <c r="E39" s="329"/>
@@ -69228,7 +69218,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B40" s="331" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C40" s="331"/>
       <c r="D40" s="335"/>
@@ -69267,7 +69257,7 @@
       </c>
       <c r="B42" s="329"/>
       <c r="C42" s="330" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D42" s="329"/>
       <c r="E42" s="329"/>
@@ -69286,10 +69276,10 @@
         <v>6.1</v>
       </c>
       <c r="B43" s="331" t="s">
+        <v>878</v>
+      </c>
+      <c r="C43" s="331" t="s">
         <v>879</v>
-      </c>
-      <c r="C43" s="331" t="s">
-        <v>880</v>
       </c>
       <c r="D43" s="331"/>
       <c r="E43" s="331"/>
@@ -69309,7 +69299,7 @@
       </c>
       <c r="B44" s="329"/>
       <c r="C44" s="330" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D44" s="329"/>
       <c r="E44" s="329"/>
@@ -70906,12 +70896,12 @@
       <c r="C19" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="444" t="s">
+      <c r="G19" s="443" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="444"/>
-      <c r="I19" s="444"/>
-      <c r="J19" s="444"/>
+      <c r="H19" s="443"/>
+      <c r="I19" s="443"/>
+      <c r="J19" s="443"/>
       <c r="L19" s="30" t="s">
         <v>97</v>
       </c>
@@ -73167,22 +73157,22 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="168"/>
-      <c r="B59" s="424" t="s">
-        <v>583</v>
-      </c>
-      <c r="C59" s="445"/>
-      <c r="D59" s="445"/>
+      <c r="B59" s="417" t="s">
+        <v>582</v>
+      </c>
+      <c r="C59" s="444"/>
+      <c r="D59" s="444"/>
       <c r="E59"/>
       <c r="F59" s="168"/>
-      <c r="G59" s="424" t="s">
-        <v>584</v>
-      </c>
-      <c r="H59" s="445"/>
-      <c r="I59" s="445"/>
+      <c r="G59" s="417" t="s">
+        <v>583</v>
+      </c>
+      <c r="H59" s="444"/>
+      <c r="I59" s="444"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="171" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B60" s="123">
         <v>1</v>
@@ -73195,7 +73185,7 @@
       </c>
       <c r="E60"/>
       <c r="F60" s="171" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G60" s="123">
         <v>1</v>
@@ -73209,7 +73199,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="123" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B61" s="168">
         <v>6</v>
@@ -73222,7 +73212,7 @@
       </c>
       <c r="E61"/>
       <c r="F61" s="123" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G61" s="168">
         <v>6</v>
@@ -73236,7 +73226,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="123" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B62" s="168">
         <v>6</v>
@@ -73249,7 +73239,7 @@
       </c>
       <c r="E62"/>
       <c r="F62" s="123" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G62" s="168">
         <v>6</v>
@@ -73263,7 +73253,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="123" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B63" s="168">
         <v>6</v>
@@ -73276,7 +73266,7 @@
       </c>
       <c r="E63"/>
       <c r="F63" s="123" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G63" s="168">
         <v>6</v>
@@ -73290,7 +73280,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B64" s="168">
         <v>6</v>
@@ -73303,7 +73293,7 @@
       </c>
       <c r="E64"/>
       <c r="F64" s="123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G64" s="168">
         <v>6</v>
@@ -73317,7 +73307,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B65" s="168">
         <v>6</v>
@@ -73330,7 +73320,7 @@
       </c>
       <c r="E65"/>
       <c r="F65" s="123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G65" s="168">
         <v>6</v>
@@ -73344,7 +73334,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="123" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B66" s="168">
         <v>0</v>
@@ -73357,7 +73347,7 @@
       </c>
       <c r="E66"/>
       <c r="F66" s="123" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G66" s="168">
         <v>0</v>
@@ -73371,7 +73361,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B67" s="168">
         <f>SUM(B61:B66)</f>
@@ -73387,7 +73377,7 @@
       </c>
       <c r="E67"/>
       <c r="F67" s="123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G67" s="168">
         <f>SUM(G61:G66)</f>
@@ -73404,7 +73394,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B68" s="168">
         <f>B67*B60</f>
@@ -73420,7 +73410,7 @@
       </c>
       <c r="E68"/>
       <c r="F68" s="123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G68" s="168">
         <f>G67*G60</f>
@@ -73437,7 +73427,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="123" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B69" s="169">
         <f>Overview!$B$117*B68</f>
@@ -73453,7 +73443,7 @@
       </c>
       <c r="E69"/>
       <c r="F69" s="123" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G69" s="169">
         <f>Overview!$B$117*G68</f>
@@ -73470,22 +73460,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="168"/>
-      <c r="B70" s="424" t="s">
-        <v>582</v>
-      </c>
-      <c r="C70" s="424"/>
-      <c r="D70" s="424"/>
+      <c r="B70" s="417" t="s">
+        <v>581</v>
+      </c>
+      <c r="C70" s="417"/>
+      <c r="D70" s="417"/>
       <c r="E70"/>
       <c r="F70" s="168"/>
-      <c r="G70" s="424" t="s">
-        <v>582</v>
-      </c>
-      <c r="H70" s="424"/>
-      <c r="I70" s="424"/>
+      <c r="G70" s="417" t="s">
+        <v>581</v>
+      </c>
+      <c r="H70" s="417"/>
+      <c r="I70" s="417"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B71" s="168">
         <f>B67*52/12</f>
@@ -73501,7 +73491,7 @@
       </c>
       <c r="E71"/>
       <c r="F71" s="123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G71" s="168">
         <f>G67*52/12</f>
@@ -73518,7 +73508,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B72" s="168">
         <f>B71*B60</f>
@@ -73534,7 +73524,7 @@
       </c>
       <c r="E72"/>
       <c r="F72" s="123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G72" s="168">
         <f>G71*G60</f>
@@ -73551,7 +73541,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="123" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B73" s="169">
         <f>B72*Overview!$B$117</f>
@@ -73567,7 +73557,7 @@
       </c>
       <c r="E73"/>
       <c r="F73" s="123" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G73" s="169">
         <f>G72*Overview!$B$117</f>
